--- a/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37206F5-535A-4EC3-BD7D-A5D847E9CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615DA613-474B-4AE8-8B45-ED0ACB519B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="269">
   <si>
     <t>Database</t>
   </si>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t>sulfuric acid</t>
-  </si>
-  <si>
-    <t>Original source had the wrong unit: MJ. I didn't do any change. Looking at Deng et al. 2017a, we are using the right order of magnitude</t>
   </si>
   <si>
     <t>market for tetraethyl orthosilicate</t>
@@ -857,17 +854,10 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -915,17 +905,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -937,43 +922,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{BFB9EBE1-8E08-45F4-B233-19C97FB6383E}"/>
-    <cellStyle name="Currency 2" xfId="7" xr:uid="{62DD0185-3D6A-4C68-AD16-7CA89AEDFE88}"/>
-    <cellStyle name="Currency 3" xfId="6" xr:uid="{9B161BA4-521A-41D6-936D-831E281BBC47}"/>
+  <cellStyles count="8">
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{BFB9EBE1-8E08-45F4-B233-19C97FB6383E}"/>
+    <cellStyle name="Currency 2" xfId="6" xr:uid="{62DD0185-3D6A-4C68-AD16-7CA89AEDFE88}"/>
+    <cellStyle name="Currency 3" xfId="5" xr:uid="{9B161BA4-521A-41D6-936D-831E281BBC47}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5" xr:uid="{5FB60D3A-D79C-49EA-BE96-63C62F6CFBC9}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{9C267BA8-DD30-48AD-92DA-0CF6251E1A08}"/>
-    <cellStyle name="Percent 2" xfId="4" xr:uid="{9470A2B0-F720-439F-9B56-9B45A6EC3D70}"/>
-    <cellStyle name="解释性文本 2" xfId="8" xr:uid="{5C8C2361-C7E4-478B-BDF1-BEC4B7B404EE}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{5FB60D3A-D79C-49EA-BE96-63C62F6CFBC9}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9C267BA8-DD30-48AD-92DA-0CF6251E1A08}"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{9470A2B0-F720-439F-9B56-9B45A6EC3D70}"/>
+    <cellStyle name="解释性文本 2" xfId="7" xr:uid="{5C8C2361-C7E4-478B-BDF1-BEC4B7B404EE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1253,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281"/>
+    <sheetView tabSelected="1" topLeftCell="A500" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C526" sqref="C526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1279,10 +1260,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -1384,7 +1365,7 @@
         <f>B4</f>
         <v>battery cell production, Li-O2</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>1</v>
       </c>
       <c r="C13" t="str">
@@ -1407,7 +1388,7 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>6.9900000000000005E-5</v>
       </c>
       <c r="C14" t="s">
@@ -1430,7 +1411,7 @@
       <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="C15" t="s">
@@ -1446,14 +1427,14 @@
         <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="C16" t="s">
@@ -1473,7 +1454,7 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>0.11600000000000001</v>
       </c>
       <c r="C17" t="s">
@@ -1493,7 +1474,7 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>0.106</v>
       </c>
       <c r="C18" t="s">
@@ -1513,7 +1494,7 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>0.214</v>
       </c>
       <c r="C19" t="s">
@@ -1533,7 +1514,7 @@
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>1.6E-2</v>
       </c>
       <c r="C20" t="s">
@@ -1553,7 +1534,7 @@
       <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>0.308</v>
       </c>
       <c r="C21" t="s">
@@ -1574,9 +1555,9 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="9">
+        <v>177</v>
+      </c>
+      <c r="B22" s="8">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="C22" t="s">
@@ -1596,7 +1577,7 @@
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="C23" t="s">
@@ -1616,7 +1597,7 @@
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="C24" t="s">
@@ -1679,7 +1660,7 @@
       <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="T32" s="6"/>
+      <c r="T32" s="5"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -1688,7 +1669,7 @@
       <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="T33" s="6"/>
+      <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
@@ -1733,7 +1714,7 @@
         <f>B27</f>
         <v>CNT production, for Li-O2 battery</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>1</v>
       </c>
       <c r="C36" t="str">
@@ -1756,7 +1737,7 @@
       <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <f>31.93/1000</f>
         <v>3.193E-2</v>
       </c>
@@ -1772,13 +1753,13 @@
       <c r="G37" t="s">
         <v>46</v>
       </c>
-      <c r="T37" s="9"/>
+      <c r="T37" s="8"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <f>2.18/1000</f>
         <v>2.1800000000000001E-3</v>
       </c>
@@ -1799,7 +1780,7 @@
       <c r="A39" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <f>6.55/1000</f>
         <v>6.5499999999999994E-3</v>
       </c>
@@ -1820,7 +1801,7 @@
       <c r="A40" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>5.8336100000000002</v>
       </c>
       <c r="C40" t="s">
@@ -1840,7 +1821,7 @@
       <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <f>56.34/1000</f>
         <v>5.6340000000000001E-2</v>
       </c>
@@ -1861,7 +1842,7 @@
       <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <f>31.93/1000</f>
         <v>3.193E-2</v>
       </c>
@@ -1882,7 +1863,7 @@
       <c r="A43" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <f>14.35/1000</f>
         <v>1.435E-2</v>
       </c>
@@ -1903,7 +1884,7 @@
       <c r="A44" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <f>15.13/1000</f>
         <v>1.5130000000000001E-2</v>
       </c>
@@ -1924,7 +1905,7 @@
       <c r="A45" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <f>30.66/1000</f>
         <v>3.066E-2</v>
       </c>
@@ -1945,7 +1926,7 @@
       <c r="A46" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>1.20146</v>
       </c>
       <c r="C46" t="s">
@@ -1965,7 +1946,7 @@
       <c r="A47" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>0.65</v>
       </c>
       <c r="C47" t="s">
@@ -1985,7 +1966,7 @@
       <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>58.09</v>
       </c>
       <c r="C48" t="s">
@@ -2005,7 +1986,7 @@
       <c r="A49" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <f>-0.43697/1000</f>
         <v>-4.3697000000000001E-4</v>
       </c>
@@ -2026,7 +2007,7 @@
       <c r="A50" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <f>-14.35/1000</f>
         <v>-1.435E-2</v>
       </c>
@@ -2047,7 +2028,7 @@
       <c r="A51" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <f>-5.505/1000</f>
         <v>-5.5049999999999995E-3</v>
       </c>
@@ -2184,7 +2165,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B64" s="4">
         <v>0.16500000000000001</v>
@@ -2199,7 +2180,7 @@
         <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2784,10 +2765,11 @@
       <c r="A110" t="s">
         <v>104</v>
       </c>
-      <c r="B110" s="11">
-        <v>10.8</v>
-      </c>
-      <c r="C110" s="5" t="s">
+      <c r="B110">
+        <f>10.8/3.6</f>
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
         <v>69</v>
       </c>
       <c r="E110" t="s">
@@ -2798,9 +2780,6 @@
       </c>
       <c r="G110" t="s">
         <v>105</v>
-      </c>
-      <c r="H110" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3986,10 +3965,11 @@
       <c r="A194" t="s">
         <v>67</v>
       </c>
-      <c r="B194" s="5">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="C194" s="5" t="s">
+      <c r="B194">
+        <f>0.236/3.6</f>
+        <v>6.5555555555555547E-2</v>
+      </c>
+      <c r="C194" t="s">
         <v>69</v>
       </c>
       <c r="E194" t="s">
@@ -4020,9 +4000,6 @@
       </c>
       <c r="G195" t="s">
         <v>135</v>
-      </c>
-      <c r="H195" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75">
@@ -4144,7 +4121,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B208">
         <v>0.23</v>
@@ -4159,7 +4136,7 @@
         <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H208">
         <f>B$272*B208</f>
@@ -4264,7 +4241,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B213">
         <v>4.9000000000000002E-2</v>
@@ -4279,7 +4256,7 @@
         <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H213">
         <f t="shared" si="2"/>
@@ -4591,7 +4568,7 @@
       <c r="G233" t="s">
         <v>120</v>
       </c>
-      <c r="H233" s="9">
+      <c r="H233" s="8">
         <f>B233*B$273</f>
         <v>5.8537696969696975E-9</v>
       </c>
@@ -4615,7 +4592,7 @@
       <c r="G234" t="s">
         <v>114</v>
       </c>
-      <c r="H234" s="9">
+      <c r="H234" s="8">
         <f t="shared" ref="H234:H240" si="3">B234*B$273</f>
         <v>36.04</v>
       </c>
@@ -4639,7 +4616,7 @@
       <c r="G235" t="s">
         <v>90</v>
       </c>
-      <c r="H235" s="9">
+      <c r="H235" s="8">
         <f t="shared" si="3"/>
         <v>1.2144387878787879E-9</v>
       </c>
@@ -4663,7 +4640,7 @@
       <c r="G236" t="s">
         <v>149</v>
       </c>
-      <c r="H236" s="9">
+      <c r="H236" s="8">
         <f t="shared" si="3"/>
         <v>39.272678787878789</v>
       </c>
@@ -4687,7 +4664,7 @@
       <c r="G237" t="s">
         <v>151</v>
       </c>
-      <c r="H237" s="9">
+      <c r="H237" s="8">
         <f t="shared" si="3"/>
         <v>1.3979151515151516</v>
       </c>
@@ -4711,7 +4688,7 @@
       <c r="G238" t="s">
         <v>152</v>
       </c>
-      <c r="H238" s="9">
+      <c r="H238" s="8">
         <f t="shared" si="3"/>
         <v>3.8442666666666665</v>
       </c>
@@ -4735,7 +4712,7 @@
       <c r="G239" t="s">
         <v>93</v>
       </c>
-      <c r="H239" s="9">
+      <c r="H239" s="8">
         <f t="shared" si="3"/>
         <v>8.7369696969696982</v>
       </c>
@@ -4759,7 +4736,7 @@
       <c r="G240" t="s">
         <v>95</v>
       </c>
-      <c r="H240" s="9">
+      <c r="H240" s="8">
         <f t="shared" si="3"/>
         <v>4.3684848484848491</v>
       </c>
@@ -4784,7 +4761,7 @@
       <c r="G241" t="s">
         <v>127</v>
       </c>
-      <c r="H241" s="9">
+      <c r="H241" s="8">
         <f>B241*B$273</f>
         <v>-3.3637333333333337</v>
       </c>
@@ -5031,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -5039,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="B262" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -5063,7 +5040,7 @@
         <v>7</v>
       </c>
       <c r="B265" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -5147,7 +5124,7 @@
       <c r="A271" t="s">
         <v>18</v>
       </c>
-      <c r="B271" s="8">
+      <c r="B271" s="7">
         <v>184</v>
       </c>
       <c r="C271" t="s">
@@ -5227,7 +5204,7 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B275">
         <v>4</v>
@@ -5242,12 +5219,12 @@
         <v>29</v>
       </c>
       <c r="G275" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B276">
         <v>41.48</v>
@@ -5262,11 +5239,11 @@
         <v>29</v>
       </c>
       <c r="G276" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="15.75">
-      <c r="A277" s="10" t="s">
+      <c r="A277" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B277">
@@ -5290,7 +5267,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -5298,7 +5275,7 @@
         <v>3</v>
       </c>
       <c r="B282" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -5383,7 +5360,7 @@
         <f>B281</f>
         <v>separator manufacturing, for Li-O2 battery</v>
       </c>
-      <c r="B290" s="8">
+      <c r="B290" s="7">
         <v>1</v>
       </c>
       <c r="C290" t="str">
@@ -5406,7 +5383,7 @@
       <c r="A291" t="s">
         <v>47</v>
       </c>
-      <c r="B291" s="8">
+      <c r="B291" s="7">
         <v>0.218</v>
       </c>
       <c r="C291" t="s">
@@ -5421,14 +5398,15 @@
       <c r="G291" t="s">
         <v>48</v>
       </c>
-      <c r="H291" s="7"/>
+      <c r="H291" s="6"/>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>67</v>
       </c>
-      <c r="B292" s="8">
-        <v>0.20830000000000001</v>
+      <c r="B292" s="7">
+        <f>0.2083/3.6</f>
+        <v>5.7861111111111113E-2</v>
       </c>
       <c r="C292" t="s">
         <v>69</v>
@@ -5443,14 +5421,14 @@
         <v>68</v>
       </c>
       <c r="H292" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>181</v>
-      </c>
-      <c r="B293" s="8">
+        <v>180</v>
+      </c>
+      <c r="B293" s="7">
         <v>2.6200000000000001E-2</v>
       </c>
       <c r="C293" t="s">
@@ -5463,15 +5441,15 @@
         <v>29</v>
       </c>
       <c r="G293" t="s">
-        <v>182</v>
-      </c>
-      <c r="H293" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="H293" s="6"/>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>183</v>
-      </c>
-      <c r="B294" s="8">
+        <v>182</v>
+      </c>
+      <c r="B294" s="7">
         <v>1.2</v>
       </c>
       <c r="C294" t="s">
@@ -5484,57 +5462,57 @@
         <v>29</v>
       </c>
       <c r="G294" t="s">
-        <v>184</v>
-      </c>
-      <c r="H294" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="H294" s="6"/>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
+        <v>184</v>
+      </c>
+      <c r="B295" s="7">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C295" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295" t="s">
+        <v>51</v>
+      </c>
+      <c r="F295" t="s">
+        <v>29</v>
+      </c>
+      <c r="G295" t="s">
         <v>185</v>
       </c>
-      <c r="B295" s="8">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="C295" t="s">
-        <v>9</v>
-      </c>
-      <c r="E295" t="s">
-        <v>51</v>
-      </c>
-      <c r="F295" t="s">
-        <v>29</v>
-      </c>
-      <c r="G295" t="s">
-        <v>186</v>
-      </c>
-      <c r="H295" s="7"/>
+      <c r="H295" s="6"/>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
+        <v>186</v>
+      </c>
+      <c r="B296" s="7">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="C296" t="s">
+        <v>9</v>
+      </c>
+      <c r="E296" t="s">
+        <v>51</v>
+      </c>
+      <c r="F296" t="s">
+        <v>29</v>
+      </c>
+      <c r="G296" t="s">
         <v>187</v>
       </c>
-      <c r="B296" s="8">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="C296" t="s">
-        <v>9</v>
-      </c>
-      <c r="E296" t="s">
-        <v>51</v>
-      </c>
-      <c r="F296" t="s">
-        <v>29</v>
-      </c>
-      <c r="G296" t="s">
-        <v>188</v>
-      </c>
-      <c r="H296" s="7"/>
+      <c r="H296" s="6"/>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>189</v>
-      </c>
-      <c r="B297" s="8">
+        <v>188</v>
+      </c>
+      <c r="B297" s="7">
         <v>0.193</v>
       </c>
       <c r="C297" t="s">
@@ -5549,34 +5527,34 @@
       <c r="G297" t="s">
         <v>71</v>
       </c>
-      <c r="H297" s="7"/>
+      <c r="H297" s="6"/>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
+        <v>189</v>
+      </c>
+      <c r="B298" s="7">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C298" t="s">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>51</v>
+      </c>
+      <c r="F298" t="s">
+        <v>29</v>
+      </c>
+      <c r="G298" t="s">
         <v>190</v>
       </c>
-      <c r="B298" s="8">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="C298" t="s">
-        <v>9</v>
-      </c>
-      <c r="E298" t="s">
-        <v>51</v>
-      </c>
-      <c r="F298" t="s">
-        <v>29</v>
-      </c>
-      <c r="G298" t="s">
-        <v>191</v>
-      </c>
-      <c r="H298" s="7"/>
+      <c r="H298" s="6"/>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>27</v>
       </c>
-      <c r="B299" s="8">
+      <c r="B299" s="7">
         <v>0.192</v>
       </c>
       <c r="C299" t="s">
@@ -5589,15 +5567,15 @@
         <v>29</v>
       </c>
       <c r="G299" t="s">
-        <v>192</v>
-      </c>
-      <c r="H299" s="7"/>
+        <v>191</v>
+      </c>
+      <c r="H299" s="6"/>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>193</v>
-      </c>
-      <c r="B300" s="8">
+        <v>192</v>
+      </c>
+      <c r="B300" s="7">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C300" t="s">
@@ -5610,15 +5588,15 @@
         <v>29</v>
       </c>
       <c r="G300" t="s">
-        <v>194</v>
-      </c>
-      <c r="H300" s="7"/>
+        <v>193</v>
+      </c>
+      <c r="H300" s="6"/>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>91</v>
       </c>
-      <c r="B301" s="8">
+      <c r="B301" s="7">
         <v>0.52500000000000002</v>
       </c>
       <c r="C301" t="s">
@@ -5633,13 +5611,13 @@
       <c r="G301" t="s">
         <v>93</v>
       </c>
-      <c r="H301" s="7"/>
+      <c r="H301" s="6"/>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>94</v>
       </c>
-      <c r="B302" s="8">
+      <c r="B302" s="7">
         <v>9.8400000000000001E-2</v>
       </c>
       <c r="C302" t="s">
@@ -5654,13 +5632,13 @@
       <c r="G302" t="s">
         <v>95</v>
       </c>
-      <c r="H302" s="7"/>
+      <c r="H302" s="6"/>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>195</v>
-      </c>
-      <c r="B303" s="8">
+        <v>194</v>
+      </c>
+      <c r="B303" s="7">
         <v>-5.3900000000000003E-2</v>
       </c>
       <c r="C303" t="s">
@@ -5673,52 +5651,52 @@
         <v>29</v>
       </c>
       <c r="G303" t="s">
-        <v>196</v>
-      </c>
-      <c r="H303" s="7"/>
+        <v>195</v>
+      </c>
+      <c r="H303" s="6"/>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>197</v>
-      </c>
-      <c r="B304" s="8">
+        <v>196</v>
+      </c>
+      <c r="B304" s="7">
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="C304" t="s">
         <v>72</v>
       </c>
       <c r="D304" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F304" t="s">
         <v>108</v>
       </c>
-      <c r="H304" s="7"/>
+      <c r="H304" s="6"/>
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>199</v>
-      </c>
-      <c r="B305" s="8">
+        <v>198</v>
+      </c>
+      <c r="B305" s="7">
         <v>1.44E-2</v>
       </c>
       <c r="C305" t="s">
         <v>9</v>
       </c>
       <c r="D305" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F305" t="s">
         <v>108</v>
       </c>
-      <c r="H305" s="7"/>
+      <c r="H305" s="6"/>
     </row>
     <row r="308" spans="1:8" ht="15.75">
       <c r="A308" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -5726,7 +5704,7 @@
         <v>3</v>
       </c>
       <c r="B309" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -5750,7 +5728,7 @@
         <v>7</v>
       </c>
       <c r="B312" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -5832,7 +5810,7 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B318" s="4">
         <v>8.8999999999999996E-2</v>
@@ -5847,12 +5825,12 @@
         <v>29</v>
       </c>
       <c r="G318" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B319" s="4">
         <v>0.48</v>
@@ -5867,12 +5845,12 @@
         <v>29</v>
       </c>
       <c r="G319" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B320" s="4">
         <v>3.0000000000000001E-3</v>
@@ -5887,12 +5865,12 @@
         <v>29</v>
       </c>
       <c r="G320" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B321" s="4">
         <v>0.3</v>
@@ -5907,12 +5885,12 @@
         <v>29</v>
       </c>
       <c r="G321" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B322" s="4">
         <v>0.13</v>
@@ -5927,12 +5905,12 @@
         <v>29</v>
       </c>
       <c r="G322" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="323" spans="1:8">
       <c r="A323" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B323" s="4">
         <v>0.1</v>
@@ -5947,7 +5925,7 @@
         <v>29</v>
       </c>
       <c r="G323" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -5975,7 +5953,7 @@
         <v>2</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -5983,7 +5961,7 @@
         <v>3</v>
       </c>
       <c r="B327" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -6007,7 +5985,7 @@
         <v>7</v>
       </c>
       <c r="B330" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -6089,7 +6067,7 @@
     </row>
     <row r="336" spans="1:8">
       <c r="A336" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B336" s="4">
         <v>2.0000000000000001E-4</v>
@@ -6104,12 +6082,12 @@
         <v>29</v>
       </c>
       <c r="G336" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B337" s="4">
         <v>0.11</v>
@@ -6124,12 +6102,12 @@
         <v>29</v>
       </c>
       <c r="G337" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B338" s="4">
         <v>1.7E-5</v>
@@ -6144,7 +6122,7 @@
         <v>29</v>
       </c>
       <c r="G338" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -6169,7 +6147,7 @@
     </row>
     <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B340" s="4">
         <v>2.1000000000000001E-2</v>
@@ -6184,12 +6162,12 @@
         <v>29</v>
       </c>
       <c r="G340" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B341" s="4">
         <v>6.7999999999999996E-3</v>
@@ -6209,7 +6187,7 @@
     </row>
     <row r="342" spans="1:7">
       <c r="A342" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B342" s="4">
         <v>1.9E-3</v>
@@ -6224,12 +6202,12 @@
         <v>29</v>
       </c>
       <c r="G342" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B343" s="4">
         <v>5.7000000000000002E-3</v>
@@ -6244,12 +6222,12 @@
         <v>29</v>
       </c>
       <c r="G343" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B344" s="4">
         <v>0.85</v>
@@ -6264,7 +6242,7 @@
         <v>29</v>
       </c>
       <c r="G344" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -6289,7 +6267,7 @@
     </row>
     <row r="346" spans="1:7">
       <c r="A346" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B346" s="4">
         <v>5.7000000000000002E-3</v>
@@ -6304,12 +6282,12 @@
         <v>29</v>
       </c>
       <c r="G346" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B347" s="4">
         <v>8.6999999999999994E-2</v>
@@ -6324,7 +6302,7 @@
         <v>29</v>
       </c>
       <c r="G347" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -6349,7 +6327,7 @@
     </row>
     <row r="349" spans="1:7">
       <c r="A349" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B349" s="4">
         <v>2E-8</v>
@@ -6364,7 +6342,7 @@
         <v>29</v>
       </c>
       <c r="G349" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="15.75">
@@ -6372,7 +6350,7 @@
         <v>2</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -6380,7 +6358,7 @@
         <v>3</v>
       </c>
       <c r="B352" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -6404,7 +6382,7 @@
         <v>7</v>
       </c>
       <c r="B355" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -6504,12 +6482,12 @@
         <v>151</v>
       </c>
       <c r="H361" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="362" spans="1:8">
       <c r="A362" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B362" s="4">
         <v>1</v>
@@ -6524,12 +6502,12 @@
         <v>29</v>
       </c>
       <c r="G362" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="363" spans="1:8">
       <c r="A363" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B363" s="4">
         <v>0.1</v>
@@ -6544,7 +6522,7 @@
         <v>29</v>
       </c>
       <c r="G363" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -6569,7 +6547,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B365" s="4">
         <v>4.6000000000000001E-10</v>
@@ -6592,7 +6570,7 @@
         <v>2</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -6600,7 +6578,7 @@
         <v>3</v>
       </c>
       <c r="B369" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -6624,7 +6602,7 @@
         <v>7</v>
       </c>
       <c r="B372" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -6726,7 +6704,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B379" s="4">
         <v>0.12</v>
@@ -6741,12 +6719,12 @@
         <v>29</v>
       </c>
       <c r="G379" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="380" spans="1:8">
       <c r="A380" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B380" s="4">
         <v>4.3999999999999997E-2</v>
@@ -6761,12 +6739,12 @@
         <v>29</v>
       </c>
       <c r="G380" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="381" spans="1:8">
       <c r="A381" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B381" s="4">
         <v>3.5999999999999999E-3</v>
@@ -6781,12 +6759,12 @@
         <v>29</v>
       </c>
       <c r="G381" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="382" spans="1:8">
       <c r="A382" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B382" s="4">
         <v>5.7000000000000002E-2</v>
@@ -6846,7 +6824,7 @@
     </row>
     <row r="385" spans="1:7">
       <c r="A385" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B385" s="4">
         <v>3.2000000000000001E-2</v>
@@ -6861,12 +6839,12 @@
         <v>29</v>
       </c>
       <c r="G385" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B386" s="4">
         <v>1.6E-2</v>
@@ -6881,12 +6859,12 @@
         <v>29</v>
       </c>
       <c r="G386" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="387" spans="1:7">
       <c r="A387" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B387" s="4">
         <v>0.45</v>
@@ -6901,12 +6879,12 @@
         <v>29</v>
       </c>
       <c r="G387" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B388" s="4">
         <v>1.4E-3</v>
@@ -6921,12 +6899,12 @@
         <v>29</v>
       </c>
       <c r="G388" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B389" s="4">
         <v>0.12</v>
@@ -6941,12 +6919,12 @@
         <v>29</v>
       </c>
       <c r="G389" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B390" s="4">
         <v>0.27</v>
@@ -6961,12 +6939,12 @@
         <v>29</v>
       </c>
       <c r="G390" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="391" spans="1:7">
       <c r="A391" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B391" s="4">
         <v>1.6E-2</v>
@@ -6981,7 +6959,7 @@
         <v>29</v>
       </c>
       <c r="G391" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -7006,7 +6984,7 @@
     </row>
     <row r="393" spans="1:7">
       <c r="A393" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B393" s="4">
         <v>0.11</v>
@@ -7021,7 +6999,7 @@
         <v>29</v>
       </c>
       <c r="G393" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -7046,7 +7024,7 @@
     </row>
     <row r="395" spans="1:7">
       <c r="A395" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B395" s="4">
         <v>2E-8</v>
@@ -7061,7 +7039,7 @@
         <v>29</v>
       </c>
       <c r="G395" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="15.75">
@@ -7069,7 +7047,7 @@
         <v>2</v>
       </c>
       <c r="B397" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -7077,7 +7055,7 @@
         <v>3</v>
       </c>
       <c r="B398" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -7101,7 +7079,7 @@
         <v>7</v>
       </c>
       <c r="B401" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -7183,7 +7161,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B407" s="4">
         <v>2.9000000000000001E-2</v>
@@ -7198,12 +7176,12 @@
         <v>29</v>
       </c>
       <c r="G407" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="408" spans="1:8">
       <c r="A408" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B408" s="4">
         <v>0.97</v>
@@ -7218,7 +7196,7 @@
         <v>29</v>
       </c>
       <c r="G408" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -7243,7 +7221,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B410" s="4">
         <v>0.11</v>
@@ -7258,7 +7236,7 @@
         <v>29</v>
       </c>
       <c r="G410" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -7283,7 +7261,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B412" s="4">
         <v>2E-8</v>
@@ -7298,7 +7276,7 @@
         <v>29</v>
       </c>
       <c r="G412" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="15.75">
@@ -7306,7 +7284,7 @@
         <v>2</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -7314,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="B416" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -7338,7 +7316,7 @@
         <v>7</v>
       </c>
       <c r="B419" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -7420,7 +7398,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B425" s="4">
         <v>0.87</v>
@@ -7435,12 +7413,12 @@
         <v>29</v>
       </c>
       <c r="G425" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="426" spans="1:8">
       <c r="A426" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B426" s="4">
         <v>3.7999999999999999E-2</v>
@@ -7455,12 +7433,12 @@
         <v>29</v>
       </c>
       <c r="G426" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="427" spans="1:8">
       <c r="A427" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B427" s="4">
         <v>2.3E-2</v>
@@ -7475,12 +7453,12 @@
         <v>29</v>
       </c>
       <c r="G427" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="428" spans="1:8">
       <c r="A428" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B428" s="4">
         <v>9.6000000000000002E-4</v>
@@ -7495,12 +7473,12 @@
         <v>29</v>
       </c>
       <c r="G428" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="429" spans="1:8">
       <c r="A429" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B429" s="4">
         <v>0.02</v>
@@ -7515,12 +7493,12 @@
         <v>29</v>
       </c>
       <c r="G429" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="430" spans="1:8">
       <c r="A430" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B430" s="4">
         <v>4.8000000000000001E-2</v>
@@ -7535,9 +7513,9 @@
         <v>29</v>
       </c>
       <c r="G430" t="s">
-        <v>254</v>
-      </c>
-      <c r="H430" s="9">
+        <v>253</v>
+      </c>
+      <c r="H430" s="8">
         <f>B430*B276</f>
         <v>1.9910399999999999</v>
       </c>
@@ -7564,7 +7542,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B432" s="4">
         <v>0.1</v>
@@ -7579,7 +7557,7 @@
         <v>29</v>
       </c>
       <c r="G432" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="435" spans="1:8" ht="15.75">
@@ -7587,7 +7565,7 @@
         <v>2</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -7595,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="B436" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -7619,7 +7597,7 @@
         <v>7</v>
       </c>
       <c r="B439" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -7701,7 +7679,7 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B445" s="4">
         <v>1</v>
@@ -7716,7 +7694,7 @@
         <v>29</v>
       </c>
       <c r="G445" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -7761,7 +7739,7 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B448" s="4">
         <v>0.1</v>
@@ -7776,7 +7754,7 @@
         <v>29</v>
       </c>
       <c r="G448" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -7804,7 +7782,7 @@
         <v>2</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -7812,7 +7790,7 @@
         <v>3</v>
       </c>
       <c r="B453" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -7836,7 +7814,7 @@
         <v>7</v>
       </c>
       <c r="B456" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -7918,7 +7896,7 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B462" s="4">
         <v>1</v>
@@ -7933,12 +7911,12 @@
         <v>29</v>
       </c>
       <c r="G462" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="463" spans="1:8">
       <c r="A463" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B463" s="4">
         <v>1</v>
@@ -7953,7 +7931,7 @@
         <v>29</v>
       </c>
       <c r="G463" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -7978,7 +7956,7 @@
     </row>
     <row r="465" spans="1:7">
       <c r="A465" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B465" s="4">
         <v>0.1</v>
@@ -7993,7 +7971,7 @@
         <v>29</v>
       </c>
       <c r="G465" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -8021,7 +7999,7 @@
         <v>2</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -8029,7 +8007,7 @@
         <v>3</v>
       </c>
       <c r="B470" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -8053,7 +8031,7 @@
         <v>7</v>
       </c>
       <c r="B473" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -8152,7 +8130,7 @@
     </row>
     <row r="480" spans="1:7">
       <c r="A480" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B480" s="4">
         <v>1</v>
@@ -8167,7 +8145,7 @@
         <v>29</v>
       </c>
       <c r="G480" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -8192,7 +8170,7 @@
     </row>
     <row r="482" spans="1:8">
       <c r="A482" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B482" s="4">
         <v>0.1</v>
@@ -8207,7 +8185,7 @@
         <v>29</v>
       </c>
       <c r="G482" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -8235,7 +8213,7 @@
         <v>2</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -8243,7 +8221,7 @@
         <v>3</v>
       </c>
       <c r="B487" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -8267,7 +8245,7 @@
         <v>7</v>
       </c>
       <c r="B490" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -8349,7 +8327,7 @@
     </row>
     <row r="496" spans="1:8">
       <c r="A496" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B496" s="4">
         <v>0.75</v>
@@ -8364,12 +8342,12 @@
         <v>29</v>
       </c>
       <c r="G496" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="497" spans="1:8">
       <c r="A497" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B497" s="4">
         <v>0.25</v>
@@ -8384,7 +8362,7 @@
         <v>29</v>
       </c>
       <c r="G497" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -8429,7 +8407,7 @@
     </row>
     <row r="500" spans="1:8">
       <c r="A500" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B500" s="4">
         <v>0.1</v>
@@ -8444,7 +8422,7 @@
         <v>29</v>
       </c>
       <c r="G500" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -8472,7 +8450,7 @@
         <v>2</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -8480,7 +8458,7 @@
         <v>3</v>
       </c>
       <c r="B505" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -8504,7 +8482,7 @@
         <v>7</v>
       </c>
       <c r="B508" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -8586,7 +8564,7 @@
     </row>
     <row r="514" spans="1:7">
       <c r="A514" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B514" s="4">
         <v>0.1</v>
@@ -8601,12 +8579,12 @@
         <v>29</v>
       </c>
       <c r="G514" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="515" spans="1:7">
       <c r="A515" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B515" s="4">
         <v>0.3</v>
@@ -8615,18 +8593,18 @@
         <v>9</v>
       </c>
       <c r="E515" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F515" t="s">
         <v>29</v>
       </c>
       <c r="G515" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="516" spans="1:7">
       <c r="A516" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B516" s="4">
         <v>0.6</v>
@@ -8641,7 +8619,7 @@
         <v>29</v>
       </c>
       <c r="G516" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -8686,7 +8664,7 @@
     </row>
     <row r="519" spans="1:7">
       <c r="A519" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B519" s="4">
         <v>0.1</v>
@@ -8701,7 +8679,7 @@
         <v>29</v>
       </c>
       <c r="G519" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="520" spans="1:7">

--- a/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65574126-AA3A-C043-936D-67FAD7597FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1B0080-1DCB-DF4F-A03B-09A6B5AC1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="281">
   <si>
     <t>Database</t>
   </si>
@@ -848,10 +848,37 @@
     <t>Values taken from Fig 3</t>
   </si>
   <si>
-    <t>System: 63.5kWh Li-O2 || Mass: 267 kg || Battery energy density: 238 Wh/kg || System energy density: 198 Wh/kg || Battery lifetime: 305 kWh/kg (1.76 MJ/km x 2e5 km / 321 kg). Source: Originally from Wang, F., Deng, Y., &amp; Yuan, C. (2020). Life cycle assessment of lithium oxygen battery for electric vehicles. Journal of Cleaner Production, 264, 121339. https://doi.org/10.1016/j.jclepro.2020.121339</t>
-  </si>
-  <si>
     <t>battery cell</t>
+  </si>
+  <si>
+    <t>market for battery, Li-oxygen, Li-O2</t>
+  </si>
+  <si>
+    <t>market group for transport, freight train</t>
+  </si>
+  <si>
+    <t>transport, freight, inland waterways, barge</t>
+  </si>
+  <si>
+    <t>market group for transport, freight, inland waterways, barge</t>
+  </si>
+  <si>
+    <t>transport, freight, sea, container ship</t>
+  </si>
+  <si>
+    <t>market for transport, freight, sea, container ship</t>
+  </si>
+  <si>
+    <t>market group for transport, freight, lorry, unspecified</t>
+  </si>
+  <si>
+    <t>transport, freight, lorry, unspecified</t>
+  </si>
+  <si>
+    <t>System: 63.5kWh Li-O2 || Mass (excl. O2 tanks): 267 kg || Battery energy density: 238 Wh/kg || System energy density (incl. O2 tanks): 198 Wh/kg || Battery lifetime: 305 kWh/kg (1.76 MJ/km x 2e5 km / 321 kg). Source: Originally from Wang, F., Deng, Y., &amp; Yuan, C. (2020). Life cycle assessment of lithium oxygen battery for electric vehicles. Journal of Cleaner Production, 264, 121339. https://doi.org/10.1016/j.jclepro.2020.121339</t>
+  </si>
+  <si>
+    <t>System: 63.5kWh Li-O2 || System mass (incl. O2 tanks: 322 kg || Battery Mass (excl. O2 tanks): 267 kg || Battery energy density: 238 Wh/kg || System energy density: 198 Wh/kg || Battery lifetime: 305 kWh/kg (1.76 MJ/km x 2e5 km / 321 kg). Source: Originally from Wang, F., Deng, Y., &amp; Yuan, C. (2020). Life cycle assessment of lithium oxygen battery for electric vehicles. Journal of Cleaner Production, 264, 121339. https://doi.org/10.1016/j.jclepro.2020.121339</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T527"/>
+  <dimension ref="A1:T541"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1310,7 +1337,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5079,7 +5106,7 @@
         <v>3</v>
       </c>
       <c r="B269" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -5202,7 +5229,7 @@
         <v>27</v>
       </c>
       <c r="G278" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H278" t="s">
         <v>269</v>
@@ -5334,132 +5361,175 @@
         <v>148</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A288" s="2" t="s">
+    <row r="286" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>169</v>
+      <c r="B286" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>3</v>
+      </c>
+      <c r="B287" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>3</v>
-      </c>
-      <c r="B289" t="s">
-        <v>260</v>
+        <v>6</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B290" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>6</v>
-      </c>
-      <c r="B291">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G294" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B292" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>8</v>
-      </c>
-      <c r="B293" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>10</v>
-      </c>
-      <c r="B294" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A295" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
-      <c r="G295" s="1"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F296" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G296" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H296" s="1" t="s">
+      <c r="H294" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="295" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A295" s="7" t="str">
+        <f>B286</f>
+        <v>market for battery, Li-oxygen, Li-O2</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295" t="str">
+        <f>B288</f>
+        <v>GLO</v>
+      </c>
+      <c r="F295" t="s">
+        <v>18</v>
+      </c>
+      <c r="G295" t="str">
+        <f>B290</f>
+        <v>battery, Li-O2</v>
+      </c>
+      <c r="H295" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A296" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
+        <v>9</v>
+      </c>
+      <c r="E296" t="s">
+        <v>5</v>
+      </c>
+      <c r="F296" t="s">
+        <v>27</v>
+      </c>
+      <c r="G296" t="str">
+        <f>B290</f>
+        <v>battery, Li-O2</v>
+      </c>
+    </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A297" t="str">
-        <f>B288</f>
-        <v>separator manufacturing, for Li-O2 battery</v>
+      <c r="A297" t="s">
+        <v>272</v>
       </c>
       <c r="B297">
-        <v>1</v>
-      </c>
-      <c r="C297" t="str">
-        <f>B293</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E297" t="str">
-        <f>B290</f>
-        <v>RER</v>
+        <v>0.30910727700000001</v>
+      </c>
+      <c r="C297" t="s">
+        <v>88</v>
+      </c>
+      <c r="E297" t="s">
+        <v>5</v>
       </c>
       <c r="F297" t="s">
-        <v>18</v>
-      </c>
-      <c r="G297" t="str">
-        <f>B292</f>
-        <v>separator</v>
+        <v>27</v>
+      </c>
+      <c r="G297" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="B298">
-        <v>0.218</v>
+        <v>2.4627409999999999E-2</v>
       </c>
       <c r="C298" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E298" t="s">
         <v>5</v>
@@ -5468,681 +5538,684 @@
         <v>27</v>
       </c>
       <c r="G298" t="s">
-        <v>45</v>
-      </c>
-      <c r="H298" s="5"/>
+        <v>273</v>
+      </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>277</v>
+      </c>
+      <c r="B299">
+        <v>0.20877976500000001</v>
+      </c>
+      <c r="C299" t="s">
+        <v>88</v>
+      </c>
+      <c r="E299" t="s">
+        <v>5</v>
+      </c>
+      <c r="F299" t="s">
+        <v>27</v>
+      </c>
+      <c r="G299" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>276</v>
+      </c>
+      <c r="B300">
+        <v>0.59901584900000004</v>
+      </c>
+      <c r="C300" t="s">
+        <v>88</v>
+      </c>
+      <c r="E300" t="s">
+        <v>5</v>
+      </c>
+      <c r="F300" t="s">
+        <v>27</v>
+      </c>
+      <c r="G300" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="7"/>
+    </row>
+    <row r="302" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>3</v>
+      </c>
+      <c r="B303" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>6</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>8</v>
+      </c>
+      <c r="B307" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" t="str">
+        <f>B302</f>
+        <v>separator manufacturing, for Li-O2 battery</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311" t="str">
+        <f>B307</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E311" t="str">
+        <f>B304</f>
+        <v>RER</v>
+      </c>
+      <c r="F311" t="s">
+        <v>18</v>
+      </c>
+      <c r="G311" t="str">
+        <f>B306</f>
+        <v>separator</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>44</v>
+      </c>
+      <c r="B312">
+        <v>0.218</v>
+      </c>
+      <c r="C312" t="s">
+        <v>9</v>
+      </c>
+      <c r="E312" t="s">
+        <v>5</v>
+      </c>
+      <c r="F312" t="s">
+        <v>27</v>
+      </c>
+      <c r="G312" t="s">
+        <v>45</v>
+      </c>
+      <c r="H312" s="5"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
         <v>64</v>
       </c>
-      <c r="B299">
+      <c r="B313">
         <f>0.2083/3.6</f>
         <v>5.7861111111111113E-2</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C313" t="s">
         <v>66</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E313" t="s">
         <v>63</v>
       </c>
-      <c r="F299" t="s">
-        <v>27</v>
-      </c>
-      <c r="G299" t="s">
+      <c r="F313" t="s">
+        <v>27</v>
+      </c>
+      <c r="G313" t="s">
         <v>65</v>
       </c>
-      <c r="H299" t="s">
+      <c r="H313" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
         <v>171</v>
       </c>
-      <c r="B300">
+      <c r="B314">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="C300" t="s">
-        <v>9</v>
-      </c>
-      <c r="E300" t="s">
+      <c r="C314" t="s">
+        <v>9</v>
+      </c>
+      <c r="E314" t="s">
         <v>5</v>
       </c>
-      <c r="F300" t="s">
-        <v>27</v>
-      </c>
-      <c r="G300" t="s">
+      <c r="F314" t="s">
+        <v>27</v>
+      </c>
+      <c r="G314" t="s">
         <v>172</v>
       </c>
-      <c r="H300" s="5"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+      <c r="H314" s="5"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
         <v>173</v>
       </c>
-      <c r="B301">
+      <c r="B315">
         <v>1.2</v>
       </c>
-      <c r="C301" t="s">
-        <v>9</v>
-      </c>
-      <c r="E301" t="s">
+      <c r="C315" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315" t="s">
         <v>5</v>
       </c>
-      <c r="F301" t="s">
-        <v>27</v>
-      </c>
-      <c r="G301" t="s">
+      <c r="F315" t="s">
+        <v>27</v>
+      </c>
+      <c r="G315" t="s">
         <v>174</v>
       </c>
-      <c r="H301" s="5"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>175</v>
-      </c>
-      <c r="B302">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="C302" t="s">
-        <v>9</v>
-      </c>
-      <c r="E302" t="s">
-        <v>48</v>
-      </c>
-      <c r="F302" t="s">
-        <v>27</v>
-      </c>
-      <c r="G302" t="s">
-        <v>176</v>
-      </c>
-      <c r="H302" s="5"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>177</v>
-      </c>
-      <c r="B303">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="C303" t="s">
-        <v>9</v>
-      </c>
-      <c r="E303" t="s">
-        <v>48</v>
-      </c>
-      <c r="F303" t="s">
-        <v>27</v>
-      </c>
-      <c r="G303" t="s">
-        <v>178</v>
-      </c>
-      <c r="H303" s="5"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>179</v>
-      </c>
-      <c r="B304">
-        <v>0.193</v>
-      </c>
-      <c r="C304" t="s">
-        <v>69</v>
-      </c>
-      <c r="E304" t="s">
-        <v>63</v>
-      </c>
-      <c r="F304" t="s">
-        <v>27</v>
-      </c>
-      <c r="G304" t="s">
-        <v>68</v>
-      </c>
-      <c r="H304" s="5"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>180</v>
-      </c>
-      <c r="B305">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="C305" t="s">
-        <v>9</v>
-      </c>
-      <c r="E305" t="s">
-        <v>48</v>
-      </c>
-      <c r="F305" t="s">
-        <v>27</v>
-      </c>
-      <c r="G305" t="s">
-        <v>181</v>
-      </c>
-      <c r="H305" s="5"/>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>25</v>
-      </c>
-      <c r="B306">
-        <v>0.192</v>
-      </c>
-      <c r="C306" t="s">
-        <v>9</v>
-      </c>
-      <c r="E306" t="s">
-        <v>5</v>
-      </c>
-      <c r="F306" t="s">
-        <v>27</v>
-      </c>
-      <c r="G306" t="s">
-        <v>182</v>
-      </c>
-      <c r="H306" s="5"/>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>183</v>
-      </c>
-      <c r="B307">
-        <v>4.0000000000000001E-10</v>
-      </c>
-      <c r="C307" t="s">
-        <v>8</v>
-      </c>
-      <c r="E307" t="s">
-        <v>48</v>
-      </c>
-      <c r="F307" t="s">
-        <v>27</v>
-      </c>
-      <c r="G307" t="s">
-        <v>184</v>
-      </c>
-      <c r="H307" s="5"/>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>87</v>
-      </c>
-      <c r="B308">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="C308" t="s">
-        <v>88</v>
-      </c>
-      <c r="E308" t="s">
-        <v>63</v>
-      </c>
-      <c r="F308" t="s">
-        <v>27</v>
-      </c>
-      <c r="G308" t="s">
-        <v>89</v>
-      </c>
-      <c r="H308" s="5"/>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>90</v>
-      </c>
-      <c r="B309">
-        <v>9.8400000000000001E-2</v>
-      </c>
-      <c r="C309" t="s">
-        <v>88</v>
-      </c>
-      <c r="E309" t="s">
-        <v>48</v>
-      </c>
-      <c r="F309" t="s">
-        <v>27</v>
-      </c>
-      <c r="G309" t="s">
-        <v>91</v>
-      </c>
-      <c r="H309" s="5"/>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>185</v>
-      </c>
-      <c r="B310">
-        <v>-5.3900000000000003E-2</v>
-      </c>
-      <c r="C310" t="s">
-        <v>9</v>
-      </c>
-      <c r="E310" t="s">
-        <v>92</v>
-      </c>
-      <c r="F310" t="s">
-        <v>27</v>
-      </c>
-      <c r="G310" t="s">
-        <v>186</v>
-      </c>
-      <c r="H310" s="5"/>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>187</v>
-      </c>
-      <c r="B311">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="C311" t="s">
-        <v>69</v>
-      </c>
-      <c r="D311" t="s">
-        <v>188</v>
-      </c>
-      <c r="F311" t="s">
-        <v>103</v>
-      </c>
-      <c r="H311" s="5"/>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>189</v>
-      </c>
-      <c r="B312">
-        <v>1.44E-2</v>
-      </c>
-      <c r="C312" t="s">
-        <v>9</v>
-      </c>
-      <c r="D312" t="s">
-        <v>188</v>
-      </c>
-      <c r="F312" t="s">
-        <v>103</v>
-      </c>
-      <c r="H312" s="5"/>
-    </row>
-    <row r="315" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A315" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="H315" s="5"/>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>3</v>
-      </c>
-      <c r="B316" t="s">
-        <v>259</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B316">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C316" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" t="s">
+        <v>48</v>
+      </c>
+      <c r="F316" t="s">
+        <v>27</v>
+      </c>
+      <c r="G316" t="s">
+        <v>176</v>
+      </c>
+      <c r="H316" s="5"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>4</v>
-      </c>
-      <c r="B317" t="s">
-        <v>48</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B317">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="C317" t="s">
+        <v>9</v>
+      </c>
+      <c r="E317" t="s">
+        <v>48</v>
+      </c>
+      <c r="F317" t="s">
+        <v>27</v>
+      </c>
+      <c r="G317" t="s">
+        <v>178</v>
+      </c>
+      <c r="H317" s="5"/>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="B318">
-        <v>1</v>
-      </c>
+        <v>0.193</v>
+      </c>
+      <c r="C318" t="s">
+        <v>69</v>
+      </c>
+      <c r="E318" t="s">
+        <v>63</v>
+      </c>
+      <c r="F318" t="s">
+        <v>27</v>
+      </c>
+      <c r="G318" t="s">
+        <v>68</v>
+      </c>
+      <c r="H318" s="5"/>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>7</v>
-      </c>
-      <c r="B319" t="s">
-        <v>165</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B319">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C319" t="s">
+        <v>9</v>
+      </c>
+      <c r="E319" t="s">
+        <v>48</v>
+      </c>
+      <c r="F319" t="s">
+        <v>27</v>
+      </c>
+      <c r="G319" t="s">
+        <v>181</v>
+      </c>
+      <c r="H319" s="5"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>8</v>
-      </c>
-      <c r="B320" t="s">
-        <v>9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B320">
+        <v>0.192</v>
+      </c>
+      <c r="C320" t="s">
+        <v>9</v>
+      </c>
+      <c r="E320" t="s">
+        <v>5</v>
+      </c>
+      <c r="F320" t="s">
+        <v>27</v>
+      </c>
+      <c r="G320" t="s">
+        <v>182</v>
+      </c>
+      <c r="H320" s="5"/>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>10</v>
-      </c>
-      <c r="B321" t="s">
-        <v>16</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B321">
+        <v>4.0000000000000001E-10</v>
+      </c>
+      <c r="C321" t="s">
+        <v>8</v>
+      </c>
+      <c r="E321" t="s">
+        <v>48</v>
+      </c>
+      <c r="F321" t="s">
+        <v>27</v>
+      </c>
+      <c r="G321" t="s">
+        <v>184</v>
+      </c>
+      <c r="H321" s="5"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A322" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B322" s="1"/>
-      <c r="C322" s="1"/>
-      <c r="D322" s="1"/>
-      <c r="E322" s="1"/>
-      <c r="F322" s="1"/>
-      <c r="G322" s="1"/>
+      <c r="A322" t="s">
+        <v>87</v>
+      </c>
+      <c r="B322">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C322" t="s">
+        <v>88</v>
+      </c>
+      <c r="E322" t="s">
+        <v>63</v>
+      </c>
+      <c r="F322" t="s">
+        <v>27</v>
+      </c>
+      <c r="G322" t="s">
+        <v>89</v>
+      </c>
+      <c r="H322" s="5"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A323" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G323" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H323" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A323" t="s">
+        <v>90</v>
+      </c>
+      <c r="B323">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="C323" t="s">
+        <v>88</v>
+      </c>
+      <c r="E323" t="s">
+        <v>48</v>
+      </c>
+      <c r="F323" t="s">
+        <v>27</v>
+      </c>
+      <c r="G323" t="s">
+        <v>91</v>
+      </c>
+      <c r="H323" s="5"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A324" t="str">
-        <f>B315</f>
-        <v>BMS production, for Li-O2 battery</v>
+      <c r="A324" t="s">
+        <v>185</v>
       </c>
       <c r="B324">
-        <v>1</v>
-      </c>
-      <c r="C324" t="str">
-        <f>B320</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E324" t="str">
-        <f>B317</f>
-        <v>RER</v>
+        <v>-5.3900000000000003E-2</v>
+      </c>
+      <c r="C324" t="s">
+        <v>9</v>
+      </c>
+      <c r="E324" t="s">
+        <v>92</v>
       </c>
       <c r="F324" t="s">
-        <v>18</v>
-      </c>
-      <c r="G324" t="str">
-        <f>B319</f>
-        <v>BMS</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G324" t="s">
+        <v>186</v>
+      </c>
+      <c r="H324" s="5"/>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>168</v>
-      </c>
-      <c r="B325" s="3">
-        <v>8.8999999999999996E-2</v>
+        <v>187</v>
+      </c>
+      <c r="B325">
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="C325" t="s">
-        <v>9</v>
-      </c>
-      <c r="E325" t="s">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="D325" t="s">
+        <v>188</v>
       </c>
       <c r="F325" t="s">
-        <v>27</v>
-      </c>
-      <c r="G325" t="s">
-        <v>167</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H325" s="5"/>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>195</v>
-      </c>
-      <c r="B326" s="3">
-        <v>0.48</v>
+        <v>189</v>
+      </c>
+      <c r="B326">
+        <v>1.44E-2</v>
       </c>
       <c r="C326" t="s">
         <v>9</v>
       </c>
-      <c r="E326" t="s">
-        <v>48</v>
+      <c r="D326" t="s">
+        <v>188</v>
       </c>
       <c r="F326" t="s">
-        <v>27</v>
-      </c>
-      <c r="G326" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>196</v>
-      </c>
-      <c r="B327" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C327" t="s">
-        <v>9</v>
-      </c>
-      <c r="E327" t="s">
-        <v>48</v>
-      </c>
-      <c r="F327" t="s">
-        <v>27</v>
-      </c>
-      <c r="G327" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>197</v>
-      </c>
-      <c r="B328" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C328" t="s">
-        <v>9</v>
-      </c>
-      <c r="E328" t="s">
-        <v>48</v>
-      </c>
-      <c r="F328" t="s">
-        <v>27</v>
-      </c>
-      <c r="G328" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>198</v>
-      </c>
-      <c r="B329" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="C329" t="s">
-        <v>9</v>
-      </c>
-      <c r="E329" t="s">
-        <v>48</v>
-      </c>
-      <c r="F329" t="s">
-        <v>27</v>
-      </c>
-      <c r="G329" t="s">
-        <v>194</v>
+        <v>103</v>
+      </c>
+      <c r="H326" s="5"/>
+    </row>
+    <row r="329" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>199</v>
-      </c>
-      <c r="B330" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C330" t="s">
-        <v>88</v>
-      </c>
-      <c r="E330" t="s">
-        <v>48</v>
-      </c>
-      <c r="F330" t="s">
-        <v>27</v>
-      </c>
-      <c r="G330" t="s">
-        <v>214</v>
+        <v>3</v>
+      </c>
+      <c r="B330" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>87</v>
-      </c>
-      <c r="B331" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C331" t="s">
-        <v>88</v>
-      </c>
-      <c r="E331" t="s">
-        <v>63</v>
-      </c>
-      <c r="F331" t="s">
-        <v>27</v>
-      </c>
-      <c r="G331" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A333" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>195</v>
+        <v>4</v>
+      </c>
+      <c r="B331" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>6</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>7</v>
+      </c>
+      <c r="B333" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B334" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>10</v>
+      </c>
+      <c r="B335" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E337" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B335" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>6</v>
-      </c>
-      <c r="B336">
+      <c r="F337" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" t="str">
+        <f>B329</f>
+        <v>BMS production, for Li-O2 battery</v>
+      </c>
+      <c r="B338">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>7</v>
-      </c>
-      <c r="B337" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>8</v>
-      </c>
-      <c r="B338" t="s">
-        <v>9</v>
+      <c r="C338" t="str">
+        <f>B334</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E338" t="str">
+        <f>B331</f>
+        <v>RER</v>
+      </c>
+      <c r="F338" t="s">
+        <v>18</v>
+      </c>
+      <c r="G338" t="str">
+        <f>B333</f>
+        <v>BMS</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>10</v>
-      </c>
-      <c r="B339" t="s">
-        <v>16</v>
+        <v>168</v>
+      </c>
+      <c r="B339" s="3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C339" t="s">
+        <v>9</v>
+      </c>
+      <c r="E339" t="s">
+        <v>5</v>
+      </c>
+      <c r="F339" t="s">
+        <v>27</v>
+      </c>
+      <c r="G339" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A340" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
-      <c r="D340" s="1"/>
-      <c r="E340" s="1"/>
-      <c r="F340" s="1"/>
-      <c r="G340" s="1"/>
+      <c r="A340" t="s">
+        <v>195</v>
+      </c>
+      <c r="B340" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="C340" t="s">
+        <v>9</v>
+      </c>
+      <c r="E340" t="s">
+        <v>48</v>
+      </c>
+      <c r="F340" t="s">
+        <v>27</v>
+      </c>
+      <c r="G340" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A341" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F341" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H341" s="1" t="s">
-        <v>3</v>
+      <c r="A341" t="s">
+        <v>196</v>
+      </c>
+      <c r="B341" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C341" t="s">
+        <v>9</v>
+      </c>
+      <c r="E341" t="s">
+        <v>48</v>
+      </c>
+      <c r="F341" t="s">
+        <v>27</v>
+      </c>
+      <c r="G341" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A342" t="str">
-        <f>B333</f>
-        <v>IBIS production, for Li-O2 battery</v>
-      </c>
-      <c r="B342">
-        <v>1</v>
-      </c>
-      <c r="C342" t="str">
-        <f>B338</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E342" t="str">
-        <f>B335</f>
-        <v>RER</v>
+      <c r="A342" t="s">
+        <v>197</v>
+      </c>
+      <c r="B342" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C342" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" t="s">
+        <v>48</v>
       </c>
       <c r="F342" t="s">
-        <v>18</v>
-      </c>
-      <c r="G342" t="str">
-        <f>B337</f>
-        <v>IBIS</v>
+        <v>27</v>
+      </c>
+      <c r="G342" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B343" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>0.13</v>
       </c>
       <c r="C343" t="s">
         <v>9</v>
@@ -6154,1610 +6227,1630 @@
         <v>27</v>
       </c>
       <c r="G343" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="B344" s="3">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C344" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E344" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F344" t="s">
         <v>27</v>
       </c>
       <c r="G344" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="B345" s="3">
-        <v>1.7E-5</v>
+        <v>0.2</v>
       </c>
       <c r="C345" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E345" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="F345" t="s">
         <v>27</v>
       </c>
       <c r="G345" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>144</v>
-      </c>
-      <c r="B346" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="C346" t="s">
-        <v>9</v>
-      </c>
-      <c r="E346" t="s">
-        <v>5</v>
-      </c>
-      <c r="F346" t="s">
-        <v>27</v>
-      </c>
-      <c r="G346" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>203</v>
-      </c>
-      <c r="B347" s="3">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C347" t="s">
-        <v>9</v>
-      </c>
-      <c r="E347" t="s">
-        <v>5</v>
-      </c>
-      <c r="F347" t="s">
-        <v>27</v>
-      </c>
-      <c r="G347" t="s">
-        <v>204</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>205</v>
-      </c>
-      <c r="B348" s="3">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="C348" t="s">
-        <v>9</v>
-      </c>
-      <c r="E348" t="s">
-        <v>48</v>
-      </c>
-      <c r="F348" t="s">
-        <v>27</v>
-      </c>
-      <c r="G348" t="s">
-        <v>126</v>
+        <v>3</v>
+      </c>
+      <c r="B348" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>206</v>
-      </c>
-      <c r="B349" s="3">
-        <v>1.9E-3</v>
-      </c>
-      <c r="C349" t="s">
-        <v>9</v>
-      </c>
-      <c r="E349" t="s">
-        <v>48</v>
-      </c>
-      <c r="F349" t="s">
-        <v>27</v>
-      </c>
-      <c r="G349" t="s">
-        <v>207</v>
+        <v>4</v>
+      </c>
+      <c r="B349" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>208</v>
-      </c>
-      <c r="B350" s="3">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="C350" t="s">
-        <v>9</v>
-      </c>
-      <c r="E350" t="s">
-        <v>92</v>
-      </c>
-      <c r="F350" t="s">
-        <v>27</v>
-      </c>
-      <c r="G350" t="s">
-        <v>209</v>
+        <v>6</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>210</v>
-      </c>
-      <c r="B351" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="C351" t="s">
-        <v>9</v>
-      </c>
-      <c r="E351" t="s">
-        <v>48</v>
-      </c>
-      <c r="F351" t="s">
-        <v>27</v>
-      </c>
-      <c r="G351" t="s">
-        <v>210</v>
+        <v>7</v>
+      </c>
+      <c r="B351" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>136</v>
-      </c>
-      <c r="B352" s="3">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="C352" t="s">
-        <v>9</v>
-      </c>
-      <c r="E352" t="s">
-        <v>48</v>
-      </c>
-      <c r="F352" t="s">
-        <v>27</v>
-      </c>
-      <c r="G352" t="s">
-        <v>136</v>
+        <v>8</v>
+      </c>
+      <c r="B352" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>211</v>
-      </c>
-      <c r="B353" s="3">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="C353" t="s">
-        <v>9</v>
-      </c>
-      <c r="E353" t="s">
-        <v>92</v>
-      </c>
-      <c r="F353" t="s">
-        <v>27</v>
-      </c>
-      <c r="G353" t="s">
-        <v>211</v>
+        <v>10</v>
+      </c>
+      <c r="B353" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>199</v>
-      </c>
-      <c r="B354" s="3">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="C354" t="s">
-        <v>88</v>
-      </c>
-      <c r="E354" t="s">
-        <v>48</v>
-      </c>
-      <c r="F354" t="s">
-        <v>27</v>
-      </c>
-      <c r="G354" t="s">
-        <v>214</v>
-      </c>
+      <c r="A354" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>87</v>
-      </c>
-      <c r="B355" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C355" t="s">
-        <v>88</v>
-      </c>
-      <c r="E355" t="s">
-        <v>63</v>
-      </c>
-      <c r="F355" t="s">
-        <v>27</v>
-      </c>
-      <c r="G355" t="s">
-        <v>89</v>
+      <c r="A355" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>212</v>
-      </c>
-      <c r="B356" s="3">
-        <v>2E-8</v>
-      </c>
-      <c r="C356" t="s">
-        <v>8</v>
-      </c>
-      <c r="E356" t="s">
+      <c r="A356" t="str">
+        <f>B347</f>
+        <v>IBIS production, for Li-O2 battery</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356" t="str">
+        <f>B352</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E356" t="str">
+        <f>B349</f>
+        <v>RER</v>
+      </c>
+      <c r="F356" t="s">
+        <v>18</v>
+      </c>
+      <c r="G356" t="str">
+        <f>B351</f>
+        <v>IBIS</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>200</v>
+      </c>
+      <c r="B357" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C357" t="s">
+        <v>9</v>
+      </c>
+      <c r="E357" t="s">
+        <v>48</v>
+      </c>
+      <c r="F357" t="s">
+        <v>27</v>
+      </c>
+      <c r="G357" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>168</v>
+      </c>
+      <c r="B358" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="C358" t="s">
+        <v>9</v>
+      </c>
+      <c r="E358" t="s">
         <v>5</v>
       </c>
-      <c r="F356" t="s">
-        <v>27</v>
-      </c>
-      <c r="G356" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A358" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>196</v>
+      <c r="F358" t="s">
+        <v>27</v>
+      </c>
+      <c r="G358" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>3</v>
-      </c>
-      <c r="B359" t="s">
-        <v>257</v>
+        <v>201</v>
+      </c>
+      <c r="B359" s="3">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>9</v>
+      </c>
+      <c r="E359" t="s">
+        <v>5</v>
+      </c>
+      <c r="F359" t="s">
+        <v>27</v>
+      </c>
+      <c r="G359" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>4</v>
-      </c>
-      <c r="B360" t="s">
-        <v>48</v>
+        <v>144</v>
+      </c>
+      <c r="B360" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C360" t="s">
+        <v>9</v>
+      </c>
+      <c r="E360" t="s">
+        <v>5</v>
+      </c>
+      <c r="F360" t="s">
+        <v>27</v>
+      </c>
+      <c r="G360" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>6</v>
-      </c>
-      <c r="B361">
-        <v>1</v>
+        <v>203</v>
+      </c>
+      <c r="B361" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C361" t="s">
+        <v>9</v>
+      </c>
+      <c r="E361" t="s">
+        <v>5</v>
+      </c>
+      <c r="F361" t="s">
+        <v>27</v>
+      </c>
+      <c r="G361" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>7</v>
-      </c>
-      <c r="B362" t="s">
-        <v>192</v>
+        <v>205</v>
+      </c>
+      <c r="B362" s="3">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="C362" t="s">
+        <v>9</v>
+      </c>
+      <c r="E362" t="s">
+        <v>48</v>
+      </c>
+      <c r="F362" t="s">
+        <v>27</v>
+      </c>
+      <c r="G362" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>8</v>
-      </c>
-      <c r="B363" t="s">
-        <v>9</v>
+        <v>206</v>
+      </c>
+      <c r="B363" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="C363" t="s">
+        <v>9</v>
+      </c>
+      <c r="E363" t="s">
+        <v>48</v>
+      </c>
+      <c r="F363" t="s">
+        <v>27</v>
+      </c>
+      <c r="G363" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>10</v>
-      </c>
-      <c r="B364" t="s">
-        <v>16</v>
+        <v>208</v>
+      </c>
+      <c r="B364" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="C364" t="s">
+        <v>9</v>
+      </c>
+      <c r="E364" t="s">
+        <v>92</v>
+      </c>
+      <c r="F364" t="s">
+        <v>27</v>
+      </c>
+      <c r="G364" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A365" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
-      <c r="D365" s="1"/>
-      <c r="E365" s="1"/>
-      <c r="F365" s="1"/>
-      <c r="G365" s="1"/>
+      <c r="A365" t="s">
+        <v>210</v>
+      </c>
+      <c r="B365" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C365" t="s">
+        <v>9</v>
+      </c>
+      <c r="E365" t="s">
+        <v>48</v>
+      </c>
+      <c r="F365" t="s">
+        <v>27</v>
+      </c>
+      <c r="G365" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A366" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G366" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H366" s="1" t="s">
-        <v>3</v>
+      <c r="A366" t="s">
+        <v>136</v>
+      </c>
+      <c r="B366" s="3">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="C366" t="s">
+        <v>9</v>
+      </c>
+      <c r="E366" t="s">
+        <v>48</v>
+      </c>
+      <c r="F366" t="s">
+        <v>27</v>
+      </c>
+      <c r="G366" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A367" t="str">
-        <f>B358</f>
-        <v>IBIS fasteners production, for Li-O2 battery</v>
-      </c>
-      <c r="B367">
-        <v>1</v>
-      </c>
-      <c r="C367" t="str">
-        <f>B363</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E367" t="str">
-        <f>B360</f>
-        <v>RER</v>
+      <c r="A367" t="s">
+        <v>211</v>
+      </c>
+      <c r="B367" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="C367" t="s">
+        <v>9</v>
+      </c>
+      <c r="E367" t="s">
+        <v>92</v>
       </c>
       <c r="F367" t="s">
-        <v>18</v>
-      </c>
-      <c r="G367" t="str">
-        <f>B362</f>
-        <v>IBIS fasteners</v>
+        <v>27</v>
+      </c>
+      <c r="G367" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="B368" s="3">
-        <v>1</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="C368" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E368" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F368" t="s">
         <v>27</v>
       </c>
       <c r="G368" t="s">
-        <v>145</v>
-      </c>
-      <c r="H368" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="B369" s="3">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="C369" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E369" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F369" t="s">
         <v>27</v>
       </c>
       <c r="G369" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B370" s="3">
-        <v>0.1</v>
+        <v>2E-8</v>
       </c>
       <c r="C370" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="E370" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F370" t="s">
         <v>27</v>
       </c>
       <c r="G370" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>87</v>
-      </c>
-      <c r="B371" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C371" t="s">
-        <v>88</v>
-      </c>
-      <c r="E371" t="s">
-        <v>63</v>
-      </c>
-      <c r="F371" t="s">
-        <v>27</v>
-      </c>
-      <c r="G371" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>216</v>
-      </c>
-      <c r="B372" s="3">
-        <v>4.6000000000000001E-10</v>
-      </c>
-      <c r="C372" t="s">
-        <v>8</v>
-      </c>
-      <c r="E372" t="s">
-        <v>48</v>
-      </c>
-      <c r="F372" t="s">
-        <v>27</v>
-      </c>
-      <c r="G372" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A375" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A372" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B375" s="1" t="s">
-        <v>197</v>
+      <c r="B372" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>3</v>
+      </c>
+      <c r="B373" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B374" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B377" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+      <c r="F379" s="1"/>
+      <c r="G379" s="1"/>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A381" t="str">
+        <f>B372</f>
+        <v>IBIS fasteners production, for Li-O2 battery</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381" t="str">
+        <f>B377</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E381" t="str">
+        <f>B374</f>
+        <v>RER</v>
+      </c>
+      <c r="F381" t="s">
+        <v>18</v>
+      </c>
+      <c r="G381" t="str">
+        <f>B376</f>
+        <v>IBIS fasteners</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>144</v>
+      </c>
+      <c r="B382" s="3">
+        <v>1</v>
+      </c>
+      <c r="C382" t="s">
+        <v>9</v>
+      </c>
+      <c r="E382" t="s">
+        <v>5</v>
+      </c>
+      <c r="F382" t="s">
+        <v>27</v>
+      </c>
+      <c r="G382" t="s">
+        <v>145</v>
+      </c>
+      <c r="H382" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>210</v>
+      </c>
+      <c r="B383" s="3">
+        <v>1</v>
+      </c>
+      <c r="C383" t="s">
+        <v>9</v>
+      </c>
+      <c r="E383" t="s">
+        <v>48</v>
+      </c>
+      <c r="F383" t="s">
+        <v>27</v>
+      </c>
+      <c r="G383" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>199</v>
+      </c>
+      <c r="B384" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C384" t="s">
+        <v>88</v>
+      </c>
+      <c r="E384" t="s">
+        <v>48</v>
+      </c>
+      <c r="F384" t="s">
+        <v>27</v>
+      </c>
+      <c r="G384" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>87</v>
+      </c>
+      <c r="B385" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C385" t="s">
+        <v>88</v>
+      </c>
+      <c r="E385" t="s">
+        <v>63</v>
+      </c>
+      <c r="F385" t="s">
+        <v>27</v>
+      </c>
+      <c r="G385" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>216</v>
+      </c>
+      <c r="B386" s="3">
+        <v>4.6000000000000001E-10</v>
+      </c>
+      <c r="C386" t="s">
+        <v>8</v>
+      </c>
+      <c r="E386" t="s">
+        <v>48</v>
+      </c>
+      <c r="F386" t="s">
+        <v>27</v>
+      </c>
+      <c r="G386" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A389" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>3</v>
+      </c>
+      <c r="B390" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B391" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
         <v>6</v>
       </c>
-      <c r="B378">
+      <c r="B392">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
         <v>7</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B393" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
         <v>8</v>
       </c>
-      <c r="B380" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
+      <c r="B394" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
         <v>10</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B395" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A382" s="1" t="s">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B382" s="1"/>
-      <c r="C382" s="1"/>
-      <c r="D382" s="1"/>
-      <c r="E382" s="1"/>
-      <c r="F382" s="1"/>
-      <c r="G382" s="1"/>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A383" s="1" t="s">
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="B397" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C383" s="1" t="s">
+      <c r="C397" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="D397" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E383" s="1" t="s">
+      <c r="E397" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F383" s="1" t="s">
+      <c r="F397" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G383" s="1" t="s">
+      <c r="G397" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H383" s="1" t="s">
+      <c r="H397" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A384" t="str">
-        <f>B375</f>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A398" t="str">
+        <f>B389</f>
         <v>high voltage system production, for Li-O2 battery</v>
       </c>
-      <c r="B384">
+      <c r="B398">
         <v>1</v>
       </c>
-      <c r="C384" t="str">
-        <f>B380</f>
+      <c r="C398" t="str">
+        <f>B394</f>
         <v>kilogram</v>
       </c>
-      <c r="E384" t="str">
-        <f>B377</f>
+      <c r="E398" t="str">
+        <f>B391</f>
         <v>RER</v>
       </c>
-      <c r="F384" t="s">
+      <c r="F398" t="s">
         <v>18</v>
       </c>
-      <c r="G384" t="str">
-        <f>B379</f>
+      <c r="G398" t="str">
+        <f>B393</f>
         <v>high voltage system</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
         <v>144</v>
       </c>
-      <c r="B385" s="3">
+      <c r="B399" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="C385" t="s">
-        <v>9</v>
-      </c>
-      <c r="E385" t="s">
+      <c r="C399" t="s">
+        <v>9</v>
+      </c>
+      <c r="E399" t="s">
         <v>5</v>
       </c>
-      <c r="F385" t="s">
-        <v>27</v>
-      </c>
-      <c r="G385" t="s">
+      <c r="F399" t="s">
+        <v>27</v>
+      </c>
+      <c r="G399" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
         <v>217</v>
       </c>
-      <c r="B386" s="3">
+      <c r="B400" s="3">
         <v>0.12</v>
       </c>
-      <c r="C386" t="s">
-        <v>9</v>
-      </c>
-      <c r="E386" t="s">
+      <c r="C400" t="s">
+        <v>9</v>
+      </c>
+      <c r="E400" t="s">
         <v>63</v>
       </c>
-      <c r="F386" t="s">
-        <v>27</v>
-      </c>
-      <c r="G386" t="s">
+      <c r="F400" t="s">
+        <v>27</v>
+      </c>
+      <c r="G400" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
         <v>219</v>
       </c>
-      <c r="B387" s="3">
+      <c r="B401" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C387" t="s">
-        <v>9</v>
-      </c>
-      <c r="E387" t="s">
-        <v>48</v>
-      </c>
-      <c r="F387" t="s">
-        <v>27</v>
-      </c>
-      <c r="G387" t="s">
+      <c r="C401" t="s">
+        <v>9</v>
+      </c>
+      <c r="E401" t="s">
+        <v>48</v>
+      </c>
+      <c r="F401" t="s">
+        <v>27</v>
+      </c>
+      <c r="G401" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
         <v>221</v>
       </c>
-      <c r="B388" s="3">
+      <c r="B402" s="3">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="C388" t="s">
-        <v>9</v>
-      </c>
-      <c r="E388" t="s">
-        <v>48</v>
-      </c>
-      <c r="F388" t="s">
-        <v>27</v>
-      </c>
-      <c r="G388" t="s">
+      <c r="C402" t="s">
+        <v>9</v>
+      </c>
+      <c r="E402" t="s">
+        <v>48</v>
+      </c>
+      <c r="F402" t="s">
+        <v>27</v>
+      </c>
+      <c r="G402" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
         <v>205</v>
       </c>
-      <c r="B389" s="3">
+      <c r="B403" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C389" t="s">
-        <v>9</v>
-      </c>
-      <c r="E389" t="s">
-        <v>48</v>
-      </c>
-      <c r="F389" t="s">
-        <v>27</v>
-      </c>
-      <c r="G389" t="s">
+      <c r="C403" t="s">
+        <v>9</v>
+      </c>
+      <c r="E403" t="s">
+        <v>48</v>
+      </c>
+      <c r="F403" t="s">
+        <v>27</v>
+      </c>
+      <c r="G403" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
         <v>116</v>
       </c>
-      <c r="B390" s="3">
+      <c r="B404" s="3">
         <v>0.23</v>
       </c>
-      <c r="C390" t="s">
-        <v>9</v>
-      </c>
-      <c r="E390" t="s">
+      <c r="C404" t="s">
+        <v>9</v>
+      </c>
+      <c r="E404" t="s">
         <v>5</v>
       </c>
-      <c r="F390" t="s">
-        <v>27</v>
-      </c>
-      <c r="G390" t="s">
+      <c r="F404" t="s">
+        <v>27</v>
+      </c>
+      <c r="G404" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
         <v>118</v>
       </c>
-      <c r="B391" s="3">
+      <c r="B405" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C391" t="s">
-        <v>9</v>
-      </c>
-      <c r="E391" t="s">
+      <c r="C405" t="s">
+        <v>9</v>
+      </c>
+      <c r="E405" t="s">
         <v>63</v>
       </c>
-      <c r="F391" t="s">
-        <v>27</v>
-      </c>
-      <c r="G391" t="s">
+      <c r="F405" t="s">
+        <v>27</v>
+      </c>
+      <c r="G405" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
         <v>223</v>
       </c>
-      <c r="B392" s="3">
+      <c r="B406" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C392" t="s">
-        <v>9</v>
-      </c>
-      <c r="E392" t="s">
+      <c r="C406" t="s">
+        <v>9</v>
+      </c>
+      <c r="E406" t="s">
         <v>5</v>
       </c>
-      <c r="F392" t="s">
-        <v>27</v>
-      </c>
-      <c r="G392" t="s">
+      <c r="F406" t="s">
+        <v>27</v>
+      </c>
+      <c r="G406" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
         <v>225</v>
       </c>
-      <c r="B393" s="3">
+      <c r="B407" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="C393" t="s">
-        <v>9</v>
-      </c>
-      <c r="E393" t="s">
+      <c r="C407" t="s">
+        <v>9</v>
+      </c>
+      <c r="E407" t="s">
         <v>5</v>
       </c>
-      <c r="F393" t="s">
-        <v>27</v>
-      </c>
-      <c r="G393" t="s">
+      <c r="F407" t="s">
+        <v>27</v>
+      </c>
+      <c r="G407" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
         <v>227</v>
       </c>
-      <c r="B394" s="3">
+      <c r="B408" s="3">
         <v>0.45</v>
       </c>
-      <c r="C394" t="s">
-        <v>9</v>
-      </c>
-      <c r="E394" t="s">
+      <c r="C408" t="s">
+        <v>9</v>
+      </c>
+      <c r="E408" t="s">
         <v>5</v>
       </c>
-      <c r="F394" t="s">
-        <v>27</v>
-      </c>
-      <c r="G394" t="s">
+      <c r="F408" t="s">
+        <v>27</v>
+      </c>
+      <c r="G408" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
         <v>210</v>
       </c>
-      <c r="B395" s="3">
+      <c r="B409" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="C395" t="s">
-        <v>9</v>
-      </c>
-      <c r="E395" t="s">
-        <v>48</v>
-      </c>
-      <c r="F395" t="s">
-        <v>27</v>
-      </c>
-      <c r="G395" t="s">
+      <c r="C409" t="s">
+        <v>9</v>
+      </c>
+      <c r="E409" t="s">
+        <v>48</v>
+      </c>
+      <c r="F409" t="s">
+        <v>27</v>
+      </c>
+      <c r="G409" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
         <v>230</v>
       </c>
-      <c r="B396" s="3">
+      <c r="B410" s="3">
         <v>0.12</v>
       </c>
-      <c r="C396" t="s">
-        <v>9</v>
-      </c>
-      <c r="E396" t="s">
-        <v>48</v>
-      </c>
-      <c r="F396" t="s">
-        <v>27</v>
-      </c>
-      <c r="G396" t="s">
+      <c r="C410" t="s">
+        <v>9</v>
+      </c>
+      <c r="E410" t="s">
+        <v>48</v>
+      </c>
+      <c r="F410" t="s">
+        <v>27</v>
+      </c>
+      <c r="G410" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
         <v>231</v>
       </c>
-      <c r="B397" s="3">
+      <c r="B411" s="3">
         <v>0.27</v>
       </c>
-      <c r="C397" t="s">
-        <v>9</v>
-      </c>
-      <c r="E397" t="s">
-        <v>48</v>
-      </c>
-      <c r="F397" t="s">
-        <v>27</v>
-      </c>
-      <c r="G397" t="s">
+      <c r="C411" t="s">
+        <v>9</v>
+      </c>
+      <c r="E411" t="s">
+        <v>48</v>
+      </c>
+      <c r="F411" t="s">
+        <v>27</v>
+      </c>
+      <c r="G411" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
         <v>229</v>
       </c>
-      <c r="B398" s="3">
+      <c r="B412" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="C398" t="s">
-        <v>9</v>
-      </c>
-      <c r="E398" t="s">
-        <v>48</v>
-      </c>
-      <c r="F398" t="s">
-        <v>27</v>
-      </c>
-      <c r="G398" t="s">
+      <c r="C412" t="s">
+        <v>9</v>
+      </c>
+      <c r="E412" t="s">
+        <v>48</v>
+      </c>
+      <c r="F412" t="s">
+        <v>27</v>
+      </c>
+      <c r="G412" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
         <v>136</v>
       </c>
-      <c r="B399" s="3">
+      <c r="B413" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C399" t="s">
-        <v>9</v>
-      </c>
-      <c r="E399" t="s">
-        <v>48</v>
-      </c>
-      <c r="F399" t="s">
-        <v>27</v>
-      </c>
-      <c r="G399" t="s">
+      <c r="C413" t="s">
+        <v>9</v>
+      </c>
+      <c r="E413" t="s">
+        <v>48</v>
+      </c>
+      <c r="F413" t="s">
+        <v>27</v>
+      </c>
+      <c r="G413" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
         <v>199</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B414" s="3">
         <v>0.11</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C414" t="s">
         <v>88</v>
       </c>
-      <c r="E400" t="s">
-        <v>48</v>
-      </c>
-      <c r="F400" t="s">
-        <v>27</v>
-      </c>
-      <c r="G400" t="s">
+      <c r="E414" t="s">
+        <v>48</v>
+      </c>
+      <c r="F414" t="s">
+        <v>27</v>
+      </c>
+      <c r="G414" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
         <v>87</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B415" s="3">
         <v>5.5E-2</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C415" t="s">
         <v>88</v>
       </c>
-      <c r="E401" t="s">
+      <c r="E415" t="s">
         <v>63</v>
       </c>
-      <c r="F401" t="s">
-        <v>27</v>
-      </c>
-      <c r="G401" t="s">
+      <c r="F415" t="s">
+        <v>27</v>
+      </c>
+      <c r="G415" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
         <v>212</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B416" s="3">
         <v>2E-8</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C416" t="s">
         <v>8</v>
       </c>
-      <c r="E402" t="s">
+      <c r="E416" t="s">
         <v>5</v>
       </c>
-      <c r="F402" t="s">
-        <v>27</v>
-      </c>
-      <c r="G402" t="s">
+      <c r="F416" t="s">
+        <v>27</v>
+      </c>
+      <c r="G416" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A404" s="2" t="s">
+    <row r="418" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A418" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="B418" s="1" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>3</v>
-      </c>
-      <c r="B405" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
-        <v>4</v>
-      </c>
-      <c r="B406" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
-        <v>6</v>
-      </c>
-      <c r="B407">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
-        <v>7</v>
-      </c>
-      <c r="B408" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
-        <v>8</v>
-      </c>
-      <c r="B409" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
-        <v>10</v>
-      </c>
-      <c r="B410" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A411" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
-      <c r="D411" s="1"/>
-      <c r="E411" s="1"/>
-      <c r="F411" s="1"/>
-      <c r="G411" s="1"/>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A412" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E412" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F412" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G412" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H412" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A413" t="str">
-        <f>B404</f>
-        <v>low voltage system production, for Li-O2 battery</v>
-      </c>
-      <c r="B413">
-        <v>1</v>
-      </c>
-      <c r="C413" t="str">
-        <f>B409</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E413" t="str">
-        <f>B406</f>
-        <v>RER</v>
-      </c>
-      <c r="F413" t="s">
-        <v>18</v>
-      </c>
-      <c r="G413" t="str">
-        <f>B408</f>
-        <v>low voltage system</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
-        <v>219</v>
-      </c>
-      <c r="B414" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C414" t="s">
-        <v>9</v>
-      </c>
-      <c r="E414" t="s">
-        <v>48</v>
-      </c>
-      <c r="F414" t="s">
-        <v>27</v>
-      </c>
-      <c r="G414" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
-        <v>232</v>
-      </c>
-      <c r="B415" s="3">
-        <v>0.97</v>
-      </c>
-      <c r="C415" t="s">
-        <v>9</v>
-      </c>
-      <c r="E415" t="s">
-        <v>5</v>
-      </c>
-      <c r="F415" t="s">
-        <v>27</v>
-      </c>
-      <c r="G415" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
-        <v>136</v>
-      </c>
-      <c r="B416" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C416" t="s">
-        <v>9</v>
-      </c>
-      <c r="E416" t="s">
-        <v>48</v>
-      </c>
-      <c r="F416" t="s">
-        <v>27</v>
-      </c>
-      <c r="G416" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
-        <v>199</v>
-      </c>
-      <c r="B417" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="C417" t="s">
-        <v>88</v>
-      </c>
-      <c r="E417" t="s">
-        <v>48</v>
-      </c>
-      <c r="F417" t="s">
-        <v>27</v>
-      </c>
-      <c r="G417" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
-        <v>87</v>
-      </c>
-      <c r="B418" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C418" t="s">
-        <v>88</v>
-      </c>
-      <c r="E418" t="s">
-        <v>63</v>
-      </c>
-      <c r="F418" t="s">
-        <v>27</v>
-      </c>
-      <c r="G418" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>212</v>
-      </c>
-      <c r="B419" s="3">
-        <v>2E-8</v>
-      </c>
-      <c r="C419" t="s">
-        <v>8</v>
-      </c>
-      <c r="E419" t="s">
-        <v>5</v>
-      </c>
-      <c r="F419" t="s">
-        <v>27</v>
-      </c>
-      <c r="G419" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A422" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>234</v>
+        <v>3</v>
+      </c>
+      <c r="B419" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>4</v>
+      </c>
+      <c r="B420" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>6</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>7</v>
+      </c>
+      <c r="B422" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B423" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
+        <v>10</v>
+      </c>
+      <c r="B424" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="1"/>
+      <c r="E425" s="1"/>
+      <c r="F425" s="1"/>
+      <c r="G425" s="1"/>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E426" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B424" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
-        <v>6</v>
-      </c>
-      <c r="B425">
+      <c r="F426" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A427" t="str">
+        <f>B418</f>
+        <v>low voltage system production, for Li-O2 battery</v>
+      </c>
+      <c r="B427">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>7</v>
-      </c>
-      <c r="B426" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
-        <v>8</v>
-      </c>
-      <c r="B427" t="s">
-        <v>9</v>
+      <c r="C427" t="str">
+        <f>B423</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E427" t="str">
+        <f>B420</f>
+        <v>RER</v>
+      </c>
+      <c r="F427" t="s">
+        <v>18</v>
+      </c>
+      <c r="G427" t="str">
+        <f>B422</f>
+        <v>low voltage system</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>10</v>
-      </c>
-      <c r="B428" t="s">
-        <v>16</v>
+        <v>219</v>
+      </c>
+      <c r="B428" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C428" t="s">
+        <v>9</v>
+      </c>
+      <c r="E428" t="s">
+        <v>48</v>
+      </c>
+      <c r="F428" t="s">
+        <v>27</v>
+      </c>
+      <c r="G428" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A429" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B429" s="1"/>
-      <c r="C429" s="1"/>
-      <c r="D429" s="1"/>
-      <c r="E429" s="1"/>
-      <c r="F429" s="1"/>
-      <c r="G429" s="1"/>
+      <c r="A429" t="s">
+        <v>232</v>
+      </c>
+      <c r="B429" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="C429" t="s">
+        <v>9</v>
+      </c>
+      <c r="E429" t="s">
+        <v>5</v>
+      </c>
+      <c r="F429" t="s">
+        <v>27</v>
+      </c>
+      <c r="G429" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A430" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E430" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F430" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G430" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H430" s="1" t="s">
-        <v>3</v>
+      <c r="A430" t="s">
+        <v>136</v>
+      </c>
+      <c r="B430" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C430" t="s">
+        <v>9</v>
+      </c>
+      <c r="E430" t="s">
+        <v>48</v>
+      </c>
+      <c r="F430" t="s">
+        <v>27</v>
+      </c>
+      <c r="G430" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A431" t="str">
-        <f>B422</f>
-        <v>cooling system production, for Li-O2 battery</v>
-      </c>
-      <c r="B431">
-        <v>1</v>
-      </c>
-      <c r="C431" t="str">
-        <f>B427</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E431" t="str">
-        <f>B424</f>
-        <v>RER</v>
+      <c r="A431" t="s">
+        <v>199</v>
+      </c>
+      <c r="B431" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="C431" t="s">
+        <v>88</v>
+      </c>
+      <c r="E431" t="s">
+        <v>48</v>
       </c>
       <c r="F431" t="s">
-        <v>18</v>
-      </c>
-      <c r="G431" t="str">
-        <f>B426</f>
-        <v>cooling system</v>
+        <v>27</v>
+      </c>
+      <c r="G431" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="B432" s="3">
-        <v>0.87</v>
+        <v>0.2</v>
       </c>
       <c r="C432" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E432" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F432" t="s">
         <v>27</v>
       </c>
       <c r="G432" t="s">
-        <v>242</v>
+        <v>89</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B433" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>2E-8</v>
       </c>
       <c r="C433" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E433" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F433" t="s">
         <v>27</v>
       </c>
       <c r="G433" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
-        <v>237</v>
-      </c>
-      <c r="B434" s="3">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C434" t="s">
-        <v>9</v>
-      </c>
-      <c r="E434" t="s">
-        <v>48</v>
-      </c>
-      <c r="F434" t="s">
-        <v>27</v>
-      </c>
-      <c r="G434" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>238</v>
-      </c>
-      <c r="B435" s="3">
-        <v>9.6000000000000002E-4</v>
-      </c>
-      <c r="C435" t="s">
-        <v>9</v>
-      </c>
-      <c r="E435" t="s">
-        <v>48</v>
-      </c>
-      <c r="F435" t="s">
-        <v>27</v>
-      </c>
-      <c r="G435" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
-        <v>239</v>
-      </c>
-      <c r="B436" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C436" t="s">
-        <v>9</v>
-      </c>
-      <c r="E436" t="s">
-        <v>48</v>
-      </c>
-      <c r="F436" t="s">
-        <v>27</v>
-      </c>
-      <c r="G436" t="s">
-        <v>246</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A436" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>240</v>
-      </c>
-      <c r="B437" s="3">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="C437" t="s">
-        <v>9</v>
-      </c>
-      <c r="E437" t="s">
-        <v>48</v>
-      </c>
-      <c r="F437" t="s">
-        <v>27</v>
-      </c>
-      <c r="G437" t="s">
-        <v>241</v>
-      </c>
-      <c r="H437" s="6">
-        <f>B437*B283</f>
-        <v>6.2026168224299056E-3</v>
+        <v>3</v>
+      </c>
+      <c r="B437" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>87</v>
-      </c>
-      <c r="B438" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="C438" t="s">
-        <v>88</v>
-      </c>
-      <c r="E438" t="s">
-        <v>63</v>
-      </c>
-      <c r="F438" t="s">
-        <v>27</v>
-      </c>
-      <c r="G438" t="s">
-        <v>89</v>
+        <v>4</v>
+      </c>
+      <c r="B438" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>199</v>
-      </c>
-      <c r="B439" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C439" t="s">
-        <v>88</v>
-      </c>
-      <c r="E439" t="s">
-        <v>48</v>
-      </c>
-      <c r="F439" t="s">
-        <v>27</v>
-      </c>
-      <c r="G439" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A442" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>7</v>
+      </c>
+      <c r="B440" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>8</v>
+      </c>
+      <c r="B441" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>10</v>
+      </c>
+      <c r="B442" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
+      <c r="A443" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
+      <c r="E443" s="1"/>
+      <c r="F443" s="1"/>
+      <c r="G443" s="1"/>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H444" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B443" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
-        <v>4</v>
-      </c>
-      <c r="B444" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
-        <v>6</v>
+      <c r="A445" t="str">
+        <f>B436</f>
+        <v>cooling system production, for Li-O2 battery</v>
       </c>
       <c r="B445">
         <v>1</v>
       </c>
+      <c r="C445" t="str">
+        <f>B441</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E445" t="str">
+        <f>B438</f>
+        <v>RER</v>
+      </c>
+      <c r="F445" t="s">
+        <v>18</v>
+      </c>
+      <c r="G445" t="str">
+        <f>B440</f>
+        <v>cooling system</v>
+      </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>7</v>
-      </c>
-      <c r="B446" t="s">
+        <v>235</v>
+      </c>
+      <c r="B446" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="C446" t="s">
+        <v>9</v>
+      </c>
+      <c r="E446" t="s">
+        <v>48</v>
+      </c>
+      <c r="F446" t="s">
+        <v>27</v>
+      </c>
+      <c r="G446" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>8</v>
-      </c>
-      <c r="B447" t="s">
-        <v>9</v>
+        <v>236</v>
+      </c>
+      <c r="B447" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C447" t="s">
+        <v>9</v>
+      </c>
+      <c r="E447" t="s">
+        <v>48</v>
+      </c>
+      <c r="F447" t="s">
+        <v>27</v>
+      </c>
+      <c r="G447" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>10</v>
-      </c>
-      <c r="B448" t="s">
-        <v>16</v>
+        <v>237</v>
+      </c>
+      <c r="B448" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C448" t="s">
+        <v>9</v>
+      </c>
+      <c r="E448" t="s">
+        <v>48</v>
+      </c>
+      <c r="F448" t="s">
+        <v>27</v>
+      </c>
+      <c r="G448" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A449" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B449" s="1"/>
-      <c r="C449" s="1"/>
-      <c r="D449" s="1"/>
-      <c r="E449" s="1"/>
-      <c r="F449" s="1"/>
-      <c r="G449" s="1"/>
+      <c r="A449" t="s">
+        <v>238</v>
+      </c>
+      <c r="B449" s="3">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="C449" t="s">
+        <v>9</v>
+      </c>
+      <c r="E449" t="s">
+        <v>48</v>
+      </c>
+      <c r="F449" t="s">
+        <v>27</v>
+      </c>
+      <c r="G449" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A450" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E450" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G450" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H450" s="1" t="s">
-        <v>3</v>
+      <c r="A450" t="s">
+        <v>239</v>
+      </c>
+      <c r="B450" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C450" t="s">
+        <v>9</v>
+      </c>
+      <c r="E450" t="s">
+        <v>48</v>
+      </c>
+      <c r="F450" t="s">
+        <v>27</v>
+      </c>
+      <c r="G450" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A451" t="str">
-        <f>B442</f>
-        <v>radiator production, for Li-O2 battery</v>
-      </c>
-      <c r="B451">
-        <v>1</v>
-      </c>
-      <c r="C451" t="str">
-        <f>B447</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E451" t="str">
-        <f>B444</f>
-        <v>RER</v>
+      <c r="A451" t="s">
+        <v>240</v>
+      </c>
+      <c r="B451" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C451" t="s">
+        <v>9</v>
+      </c>
+      <c r="E451" t="s">
+        <v>48</v>
       </c>
       <c r="F451" t="s">
-        <v>18</v>
-      </c>
-      <c r="G451" t="str">
-        <f>B446</f>
-        <v>radiator</v>
+        <v>27</v>
+      </c>
+      <c r="G451" t="s">
+        <v>241</v>
+      </c>
+      <c r="H451" s="6">
+        <f>B451*B283</f>
+        <v>6.2026168224299056E-3</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>217</v>
+        <v>87</v>
       </c>
       <c r="B452" s="3">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="C452" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E452" t="s">
         <v>63</v>
@@ -7766,883 +7859,883 @@
         <v>27</v>
       </c>
       <c r="G452" t="s">
-        <v>218</v>
+        <v>89</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>111</v>
-      </c>
-      <c r="B453">
+        <v>199</v>
+      </c>
+      <c r="B453" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C453" t="s">
+        <v>88</v>
+      </c>
+      <c r="E453" t="s">
+        <v>48</v>
+      </c>
+      <c r="F453" t="s">
+        <v>27</v>
+      </c>
+      <c r="G453" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A456" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>3</v>
+      </c>
+      <c r="B457" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>4</v>
+      </c>
+      <c r="B458" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>6</v>
+      </c>
+      <c r="B459">
         <v>1</v>
-      </c>
-      <c r="C453" t="s">
-        <v>9</v>
-      </c>
-      <c r="E453" t="s">
-        <v>48</v>
-      </c>
-      <c r="F453" t="s">
-        <v>27</v>
-      </c>
-      <c r="G453" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
-        <v>87</v>
-      </c>
-      <c r="B454" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C454" t="s">
-        <v>88</v>
-      </c>
-      <c r="E454" t="s">
-        <v>63</v>
-      </c>
-      <c r="F454" t="s">
-        <v>27</v>
-      </c>
-      <c r="G454" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
-        <v>199</v>
-      </c>
-      <c r="B455" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C455" t="s">
-        <v>88</v>
-      </c>
-      <c r="E455" t="s">
-        <v>48</v>
-      </c>
-      <c r="F455" t="s">
-        <v>27</v>
-      </c>
-      <c r="G455" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
-        <v>114</v>
-      </c>
-      <c r="B456" s="3">
-        <v>1.5E-10</v>
-      </c>
-      <c r="C456" t="s">
-        <v>8</v>
-      </c>
-      <c r="E456" t="s">
-        <v>48</v>
-      </c>
-      <c r="F456" t="s">
-        <v>27</v>
-      </c>
-      <c r="G456" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A459" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B460" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B461" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
+        <v>10</v>
+      </c>
+      <c r="B462" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B463" s="1"/>
+      <c r="C463" s="1"/>
+      <c r="D463" s="1"/>
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A465" t="str">
+        <f>B456</f>
+        <v>radiator production, for Li-O2 battery</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="C465" t="str">
+        <f>B461</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E465" t="str">
+        <f>B458</f>
+        <v>RER</v>
+      </c>
+      <c r="F465" t="s">
+        <v>18</v>
+      </c>
+      <c r="G465" t="str">
+        <f>B460</f>
+        <v>radiator</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>217</v>
+      </c>
+      <c r="B466" s="3">
+        <v>1</v>
+      </c>
+      <c r="C466" t="s">
+        <v>9</v>
+      </c>
+      <c r="E466" t="s">
+        <v>63</v>
+      </c>
+      <c r="F466" t="s">
+        <v>27</v>
+      </c>
+      <c r="G466" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>111</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467" t="s">
+        <v>9</v>
+      </c>
+      <c r="E467" t="s">
+        <v>48</v>
+      </c>
+      <c r="F467" t="s">
+        <v>27</v>
+      </c>
+      <c r="G467" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>87</v>
+      </c>
+      <c r="B468" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C468" t="s">
+        <v>88</v>
+      </c>
+      <c r="E468" t="s">
+        <v>63</v>
+      </c>
+      <c r="F468" t="s">
+        <v>27</v>
+      </c>
+      <c r="G468" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>199</v>
+      </c>
+      <c r="B469" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C469" t="s">
+        <v>88</v>
+      </c>
+      <c r="E469" t="s">
+        <v>48</v>
+      </c>
+      <c r="F469" t="s">
+        <v>27</v>
+      </c>
+      <c r="G469" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>114</v>
+      </c>
+      <c r="B470" s="3">
+        <v>1.5E-10</v>
+      </c>
+      <c r="C470" t="s">
+        <v>8</v>
+      </c>
+      <c r="E470" t="s">
+        <v>48</v>
+      </c>
+      <c r="F470" t="s">
+        <v>27</v>
+      </c>
+      <c r="G470" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A473" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>3</v>
+      </c>
+      <c r="B474" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>4</v>
+      </c>
+      <c r="B475" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
         <v>6</v>
       </c>
-      <c r="B462">
+      <c r="B476">
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
         <v>7</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B477" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
         <v>8</v>
       </c>
-      <c r="B464" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
+      <c r="B478" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
         <v>10</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B479" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A466" s="1" t="s">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B466" s="1"/>
-      <c r="C466" s="1"/>
-      <c r="D466" s="1"/>
-      <c r="E466" s="1"/>
-      <c r="F466" s="1"/>
-      <c r="G466" s="1"/>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A467" s="1" t="s">
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
+      <c r="D480" s="1"/>
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="B481" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C467" s="1" t="s">
+      <c r="C481" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D467" s="1" t="s">
+      <c r="D481" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E467" s="1" t="s">
+      <c r="E481" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F467" s="1" t="s">
+      <c r="F481" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G467" s="1" t="s">
+      <c r="G481" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H467" s="1" t="s">
+      <c r="H481" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A468" t="str">
-        <f>B459</f>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A482" t="str">
+        <f>B473</f>
         <v>manifolds production, for Li-O2 battery</v>
       </c>
-      <c r="B468">
+      <c r="B482">
         <v>1</v>
       </c>
-      <c r="C468" t="str">
-        <f>B464</f>
+      <c r="C482" t="str">
+        <f>B478</f>
         <v>kilogram</v>
       </c>
-      <c r="E468" t="str">
-        <f>B461</f>
+      <c r="E482" t="str">
+        <f>B475</f>
         <v>RER</v>
       </c>
-      <c r="F468" t="s">
+      <c r="F482" t="s">
         <v>18</v>
       </c>
-      <c r="G468" t="str">
-        <f>B463</f>
+      <c r="G482" t="str">
+        <f>B477</f>
         <v>manifolds</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
         <v>217</v>
       </c>
-      <c r="B469" s="3">
+      <c r="B483" s="3">
         <v>1</v>
       </c>
-      <c r="C469" t="s">
-        <v>9</v>
-      </c>
-      <c r="E469" t="s">
+      <c r="C483" t="s">
+        <v>9</v>
+      </c>
+      <c r="E483" t="s">
         <v>63</v>
       </c>
-      <c r="F469" t="s">
-        <v>27</v>
-      </c>
-      <c r="G469" t="s">
+      <c r="F483" t="s">
+        <v>27</v>
+      </c>
+      <c r="G483" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
         <v>230</v>
       </c>
-      <c r="B470" s="3">
+      <c r="B484" s="3">
         <v>1</v>
       </c>
-      <c r="C470" t="s">
-        <v>9</v>
-      </c>
-      <c r="E470" t="s">
-        <v>48</v>
-      </c>
-      <c r="F470" t="s">
-        <v>27</v>
-      </c>
-      <c r="G470" t="s">
+      <c r="C484" t="s">
+        <v>9</v>
+      </c>
+      <c r="E484" t="s">
+        <v>48</v>
+      </c>
+      <c r="F484" t="s">
+        <v>27</v>
+      </c>
+      <c r="G484" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
         <v>87</v>
       </c>
-      <c r="B471" s="3">
+      <c r="B485" s="3">
         <v>0.2</v>
       </c>
-      <c r="C471" t="s">
+      <c r="C485" t="s">
         <v>88</v>
       </c>
-      <c r="E471" t="s">
+      <c r="E485" t="s">
         <v>63</v>
       </c>
-      <c r="F471" t="s">
-        <v>27</v>
-      </c>
-      <c r="G471" t="s">
+      <c r="F485" t="s">
+        <v>27</v>
+      </c>
+      <c r="G485" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A472" t="s">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
         <v>199</v>
       </c>
-      <c r="B472" s="3">
+      <c r="B486" s="3">
         <v>0.1</v>
       </c>
-      <c r="C472" t="s">
+      <c r="C486" t="s">
         <v>88</v>
       </c>
-      <c r="E472" t="s">
-        <v>48</v>
-      </c>
-      <c r="F472" t="s">
-        <v>27</v>
-      </c>
-      <c r="G472" t="s">
+      <c r="E486" t="s">
+        <v>48</v>
+      </c>
+      <c r="F486" t="s">
+        <v>27</v>
+      </c>
+      <c r="G486" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A473" t="s">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
         <v>114</v>
       </c>
-      <c r="B473" s="3">
+      <c r="B487" s="3">
         <v>1.5E-10</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C487" t="s">
         <v>8</v>
       </c>
-      <c r="E473" t="s">
-        <v>48</v>
-      </c>
-      <c r="F473" t="s">
-        <v>27</v>
-      </c>
-      <c r="G473" t="s">
+      <c r="E487" t="s">
+        <v>48</v>
+      </c>
+      <c r="F487" t="s">
+        <v>27</v>
+      </c>
+      <c r="G487" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A476" s="2" t="s">
+    <row r="490" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A490" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="B490" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A477" t="s">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
         <v>3</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B491" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
         <v>4</v>
       </c>
-      <c r="B478" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A479" t="s">
+      <c r="B492" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
         <v>6</v>
       </c>
-      <c r="B479">
+      <c r="B493">
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A480" t="s">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
         <v>7</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B494" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A481" t="s">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
         <v>8</v>
       </c>
-      <c r="B481" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A482" t="s">
+      <c r="B495" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
         <v>10</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B496" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A483" s="1" t="s">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B483" s="1"/>
-      <c r="C483" s="1"/>
-      <c r="D483" s="1"/>
-      <c r="E483" s="1"/>
-      <c r="F483" s="1"/>
-      <c r="G483" s="1"/>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A484" s="1" t="s">
+      <c r="B497" s="1"/>
+      <c r="C497" s="1"/>
+      <c r="D497" s="1"/>
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="B498" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C484" s="1" t="s">
+      <c r="C498" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D484" s="1" t="s">
+      <c r="D498" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E484" s="1" t="s">
+      <c r="E498" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F484" s="1" t="s">
+      <c r="F498" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G484" s="1" t="s">
+      <c r="G498" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A485" t="str">
-        <f>B476</f>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A499" t="str">
+        <f>B490</f>
         <v>clamps and fasteners production, for Li-O2 battery</v>
       </c>
-      <c r="B485">
+      <c r="B499">
         <v>1</v>
       </c>
-      <c r="C485" t="str">
-        <f>B481</f>
+      <c r="C499" t="str">
+        <f>B495</f>
         <v>kilogram</v>
       </c>
-      <c r="E485" t="str">
-        <f>B478</f>
+      <c r="E499" t="str">
+        <f>B492</f>
         <v>RER</v>
       </c>
-      <c r="F485" t="s">
+      <c r="F499" t="s">
         <v>18</v>
       </c>
-      <c r="G485" t="str">
-        <f>B480</f>
+      <c r="G499" t="str">
+        <f>B494</f>
         <v>clamps and fasteners</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A486" t="s">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
         <v>144</v>
       </c>
-      <c r="B486" s="3">
+      <c r="B500" s="3">
         <v>1</v>
       </c>
-      <c r="C486" t="s">
-        <v>9</v>
-      </c>
-      <c r="E486" t="s">
+      <c r="C500" t="s">
+        <v>9</v>
+      </c>
+      <c r="E500" t="s">
         <v>5</v>
       </c>
-      <c r="F486" t="s">
-        <v>27</v>
-      </c>
-      <c r="G486" t="s">
+      <c r="F500" t="s">
+        <v>27</v>
+      </c>
+      <c r="G500" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A487" t="s">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
         <v>210</v>
       </c>
-      <c r="B487" s="3">
+      <c r="B501" s="3">
         <v>1</v>
       </c>
-      <c r="C487" t="s">
-        <v>9</v>
-      </c>
-      <c r="E487" t="s">
-        <v>48</v>
-      </c>
-      <c r="F487" t="s">
-        <v>27</v>
-      </c>
-      <c r="G487" t="s">
+      <c r="C501" t="s">
+        <v>9</v>
+      </c>
+      <c r="E501" t="s">
+        <v>48</v>
+      </c>
+      <c r="F501" t="s">
+        <v>27</v>
+      </c>
+      <c r="G501" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A488" t="s">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
         <v>87</v>
       </c>
-      <c r="B488" s="3">
+      <c r="B502" s="3">
         <v>0.2</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C502" t="s">
         <v>88</v>
       </c>
-      <c r="E488" t="s">
+      <c r="E502" t="s">
         <v>63</v>
       </c>
-      <c r="F488" t="s">
-        <v>27</v>
-      </c>
-      <c r="G488" t="s">
+      <c r="F502" t="s">
+        <v>27</v>
+      </c>
+      <c r="G502" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A489" t="s">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
         <v>199</v>
       </c>
-      <c r="B489" s="3">
+      <c r="B503" s="3">
         <v>0.1</v>
       </c>
-      <c r="C489" t="s">
+      <c r="C503" t="s">
         <v>88</v>
       </c>
-      <c r="E489" t="s">
-        <v>48</v>
-      </c>
-      <c r="F489" t="s">
-        <v>27</v>
-      </c>
-      <c r="G489" t="s">
+      <c r="E503" t="s">
+        <v>48</v>
+      </c>
+      <c r="F503" t="s">
+        <v>27</v>
+      </c>
+      <c r="G503" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
         <v>85</v>
       </c>
-      <c r="B490" s="3">
+      <c r="B504" s="3">
         <v>4.6000000000000001E-10</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C504" t="s">
         <v>8</v>
       </c>
-      <c r="E490" t="s">
+      <c r="E504" t="s">
         <v>5</v>
       </c>
-      <c r="F490" t="s">
-        <v>27</v>
-      </c>
-      <c r="G490" t="s">
+      <c r="F504" t="s">
+        <v>27</v>
+      </c>
+      <c r="G504" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A493" s="2" t="s">
+    <row r="507" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A507" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B493" s="1" t="s">
+      <c r="B507" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A494" t="s">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
         <v>3</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B508" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
         <v>4</v>
       </c>
-      <c r="B495" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A496" t="s">
+      <c r="B509" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
         <v>6</v>
       </c>
-      <c r="B496">
+      <c r="B510">
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A497" t="s">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
         <v>7</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B511" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A498" t="s">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
         <v>8</v>
       </c>
-      <c r="B498" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A499" t="s">
-        <v>10</v>
-      </c>
-      <c r="B499" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A500" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B500" s="1"/>
-      <c r="C500" s="1"/>
-      <c r="D500" s="1"/>
-      <c r="E500" s="1"/>
-      <c r="F500" s="1"/>
-      <c r="G500" s="1"/>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A501" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D501" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E501" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F501" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G501" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H501" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A502" t="str">
-        <f>B493</f>
-        <v>pipe fitting production, for Li-O2 battery</v>
-      </c>
-      <c r="B502">
-        <v>1</v>
-      </c>
-      <c r="C502" t="str">
-        <f>B498</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E502" t="str">
-        <f>B495</f>
-        <v>RER</v>
-      </c>
-      <c r="F502" t="s">
-        <v>18</v>
-      </c>
-      <c r="G502" t="str">
-        <f>B497</f>
-        <v>pipe fitting</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
-        <v>247</v>
-      </c>
-      <c r="B503" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C503" t="s">
-        <v>9</v>
-      </c>
-      <c r="E503" t="s">
-        <v>48</v>
-      </c>
-      <c r="F503" t="s">
-        <v>27</v>
-      </c>
-      <c r="G503" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A504" t="s">
-        <v>221</v>
-      </c>
-      <c r="B504" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C504" t="s">
-        <v>9</v>
-      </c>
-      <c r="E504" t="s">
-        <v>48</v>
-      </c>
-      <c r="F504" t="s">
-        <v>27</v>
-      </c>
-      <c r="G504" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A505" t="s">
-        <v>136</v>
-      </c>
-      <c r="B505" s="3">
-        <v>1</v>
-      </c>
-      <c r="C505" t="s">
-        <v>9</v>
-      </c>
-      <c r="E505" t="s">
-        <v>48</v>
-      </c>
-      <c r="F505" t="s">
-        <v>27</v>
-      </c>
-      <c r="G505" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A506" t="s">
-        <v>87</v>
-      </c>
-      <c r="B506" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C506" t="s">
-        <v>88</v>
-      </c>
-      <c r="E506" t="s">
-        <v>63</v>
-      </c>
-      <c r="F506" t="s">
-        <v>27</v>
-      </c>
-      <c r="G506" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A507" t="s">
-        <v>199</v>
-      </c>
-      <c r="B507" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C507" t="s">
-        <v>88</v>
-      </c>
-      <c r="E507" t="s">
-        <v>48</v>
-      </c>
-      <c r="F507" t="s">
-        <v>27</v>
-      </c>
-      <c r="G507" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A508" t="s">
-        <v>137</v>
-      </c>
-      <c r="B508" s="3">
-        <v>7.4000000000000003E-10</v>
-      </c>
-      <c r="C508" t="s">
-        <v>8</v>
-      </c>
-      <c r="E508" t="s">
-        <v>48</v>
-      </c>
-      <c r="F508" t="s">
-        <v>27</v>
-      </c>
-      <c r="G508" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A511" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A512" t="s">
-        <v>3</v>
-      </c>
       <c r="B512" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
+        <v>10</v>
+      </c>
+      <c r="B513" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B514" s="1"/>
+      <c r="C514" s="1"/>
+      <c r="D514" s="1"/>
+      <c r="E514" s="1"/>
+      <c r="F514" s="1"/>
+      <c r="G514" s="1"/>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E515" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B513" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A514" t="s">
-        <v>6</v>
-      </c>
-      <c r="B514">
+      <c r="F515" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A516" t="str">
+        <f>B507</f>
+        <v>pipe fitting production, for Li-O2 battery</v>
+      </c>
+      <c r="B516">
         <v>1</v>
       </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A515" t="s">
-        <v>7</v>
-      </c>
-      <c r="B515" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A516" t="s">
-        <v>8</v>
-      </c>
-      <c r="B516" t="s">
-        <v>9</v>
+      <c r="C516" t="str">
+        <f>B512</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E516" t="str">
+        <f>B509</f>
+        <v>RER</v>
+      </c>
+      <c r="F516" t="s">
+        <v>18</v>
+      </c>
+      <c r="G516" t="str">
+        <f>B511</f>
+        <v>pipe fitting</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>10</v>
-      </c>
-      <c r="B517" t="s">
-        <v>16</v>
+        <v>247</v>
+      </c>
+      <c r="B517" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C517" t="s">
+        <v>9</v>
+      </c>
+      <c r="E517" t="s">
+        <v>48</v>
+      </c>
+      <c r="F517" t="s">
+        <v>27</v>
+      </c>
+      <c r="G517" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A518" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B518" s="1"/>
-      <c r="C518" s="1"/>
-      <c r="D518" s="1"/>
-      <c r="E518" s="1"/>
-      <c r="F518" s="1"/>
-      <c r="G518" s="1"/>
+      <c r="A518" t="s">
+        <v>221</v>
+      </c>
+      <c r="B518" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C518" t="s">
+        <v>9</v>
+      </c>
+      <c r="E518" t="s">
+        <v>48</v>
+      </c>
+      <c r="F518" t="s">
+        <v>27</v>
+      </c>
+      <c r="G518" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A519" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C519" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D519" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E519" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F519" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G519" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H519" s="1" t="s">
-        <v>3</v>
+      <c r="A519" t="s">
+        <v>136</v>
+      </c>
+      <c r="B519" s="3">
+        <v>1</v>
+      </c>
+      <c r="C519" t="s">
+        <v>9</v>
+      </c>
+      <c r="E519" t="s">
+        <v>48</v>
+      </c>
+      <c r="F519" t="s">
+        <v>27</v>
+      </c>
+      <c r="G519" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A520" t="str">
-        <f>B511</f>
-        <v>thermal pad production, for Li-O2 battery</v>
-      </c>
-      <c r="B520">
-        <v>1</v>
-      </c>
-      <c r="C520" t="str">
-        <f>B516</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E520" t="str">
-        <f>B513</f>
-        <v>RER</v>
+      <c r="A520" t="s">
+        <v>87</v>
+      </c>
+      <c r="B520" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C520" t="s">
+        <v>88</v>
+      </c>
+      <c r="E520" t="s">
+        <v>63</v>
       </c>
       <c r="F520" t="s">
-        <v>18</v>
-      </c>
-      <c r="G520" t="str">
-        <f>B515</f>
-        <v>thermal pad</v>
+        <v>27</v>
+      </c>
+      <c r="G520" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="B521" s="3">
         <v>0.1</v>
       </c>
       <c r="C521" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E521" t="s">
         <v>48</v>
@@ -8651,126 +8744,283 @@
         <v>27</v>
       </c>
       <c r="G521" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="B522" s="3">
-        <v>0.3</v>
+        <v>7.4000000000000003E-10</v>
       </c>
       <c r="C522" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E522" t="s">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="F522" t="s">
         <v>27</v>
       </c>
       <c r="G522" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A523" t="s">
-        <v>163</v>
-      </c>
-      <c r="B523" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="C523" t="s">
-        <v>9</v>
-      </c>
-      <c r="E523" t="s">
-        <v>5</v>
-      </c>
-      <c r="F523" t="s">
-        <v>27</v>
-      </c>
-      <c r="G523" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A524" t="s">
-        <v>136</v>
-      </c>
-      <c r="B524" s="3">
-        <v>1</v>
-      </c>
-      <c r="C524" t="s">
-        <v>9</v>
-      </c>
-      <c r="E524" t="s">
-        <v>48</v>
-      </c>
-      <c r="F524" t="s">
-        <v>27</v>
-      </c>
-      <c r="G524" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A525" t="s">
-        <v>87</v>
-      </c>
-      <c r="B525" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C525" t="s">
-        <v>88</v>
-      </c>
-      <c r="E525" t="s">
-        <v>63</v>
-      </c>
-      <c r="F525" t="s">
-        <v>27</v>
-      </c>
-      <c r="G525" t="s">
-        <v>89</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A525" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>199</v>
-      </c>
-      <c r="B526" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C526" t="s">
-        <v>88</v>
-      </c>
-      <c r="E526" t="s">
-        <v>48</v>
-      </c>
-      <c r="F526" t="s">
-        <v>27</v>
-      </c>
-      <c r="G526" t="s">
-        <v>214</v>
+        <v>3</v>
+      </c>
+      <c r="B526" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
+        <v>4</v>
+      </c>
+      <c r="B527" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>6</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>7</v>
+      </c>
+      <c r="B529" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>8</v>
+      </c>
+      <c r="B530" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>10</v>
+      </c>
+      <c r="B531" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B532" s="1"/>
+      <c r="C532" s="1"/>
+      <c r="D532" s="1"/>
+      <c r="E532" s="1"/>
+      <c r="F532" s="1"/>
+      <c r="G532" s="1"/>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A534" t="str">
+        <f>B525</f>
+        <v>thermal pad production, for Li-O2 battery</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+      <c r="C534" t="str">
+        <f>B530</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E534" t="str">
+        <f>B527</f>
+        <v>RER</v>
+      </c>
+      <c r="F534" t="s">
+        <v>18</v>
+      </c>
+      <c r="G534" t="str">
+        <f>B529</f>
+        <v>thermal pad</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>249</v>
+      </c>
+      <c r="B535" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C535" t="s">
+        <v>9</v>
+      </c>
+      <c r="E535" t="s">
+        <v>48</v>
+      </c>
+      <c r="F535" t="s">
+        <v>27</v>
+      </c>
+      <c r="G535" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>252</v>
+      </c>
+      <c r="B536" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C536" t="s">
+        <v>9</v>
+      </c>
+      <c r="E536" t="s">
+        <v>253</v>
+      </c>
+      <c r="F536" t="s">
+        <v>27</v>
+      </c>
+      <c r="G536" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>163</v>
+      </c>
+      <c r="B537" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C537" t="s">
+        <v>9</v>
+      </c>
+      <c r="E537" t="s">
+        <v>5</v>
+      </c>
+      <c r="F537" t="s">
+        <v>27</v>
+      </c>
+      <c r="G537" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>136</v>
+      </c>
+      <c r="B538" s="3">
+        <v>1</v>
+      </c>
+      <c r="C538" t="s">
+        <v>9</v>
+      </c>
+      <c r="E538" t="s">
+        <v>48</v>
+      </c>
+      <c r="F538" t="s">
+        <v>27</v>
+      </c>
+      <c r="G538" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>87</v>
+      </c>
+      <c r="B539" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C539" t="s">
+        <v>88</v>
+      </c>
+      <c r="E539" t="s">
+        <v>63</v>
+      </c>
+      <c r="F539" t="s">
+        <v>27</v>
+      </c>
+      <c r="G539" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>199</v>
+      </c>
+      <c r="B540" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C540" t="s">
+        <v>88</v>
+      </c>
+      <c r="E540" t="s">
+        <v>48</v>
+      </c>
+      <c r="F540" t="s">
+        <v>27</v>
+      </c>
+      <c r="G540" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
         <v>137</v>
       </c>
-      <c r="B527" s="3">
+      <c r="B541" s="3">
         <v>7.4000000000000003E-10</v>
       </c>
-      <c r="C527" t="s">
+      <c r="C541" t="s">
         <v>8</v>
       </c>
-      <c r="E527" t="s">
-        <v>48</v>
-      </c>
-      <c r="F527" t="s">
-        <v>27</v>
-      </c>
-      <c r="G527" t="s">
+      <c r="E541" t="s">
+        <v>48</v>
+      </c>
+      <c r="F541" t="s">
+        <v>27</v>
+      </c>
+      <c r="G541" t="s">
         <v>138</v>
       </c>
     </row>
